--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630600.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF63DC8-1FDE-4B56-8162-A5558A48F3F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C650AB-3956-47FD-AB11-82A7B4C7EDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T061325.482" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T070031.064" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="116">
   <si>
     <t>Do Ty</t>
   </si>
@@ -250,6 +250,9 @@
     <t>ANNISA NURHASANAH / RIZKY CHRI</t>
   </si>
   <si>
+    <t>RIZKY CHRISDIANA</t>
+  </si>
+  <si>
     <t>INV-CA/01-2024/0001</t>
   </si>
   <si>
@@ -338,6 +341,21 @@
   </si>
   <si>
     <t>HANCA HASIL EMBRO</t>
+  </si>
+  <si>
+    <t>8/KNB/GTX/I/2024</t>
+  </si>
+  <si>
+    <t>9/KNB/GTX/I/2024</t>
+  </si>
+  <si>
+    <t>01/GISTEX/JAN/24</t>
+  </si>
+  <si>
+    <t>01/GISTEX/FEB/24</t>
+  </si>
+  <si>
+    <t>PENGGERJAAN POLDING CELULER</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1192,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ165"/>
+  <dimension ref="A1:AZ196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3175,10 +3193,10 @@
         <v>57427970</v>
       </c>
       <c r="AJ15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" s="1">
         <v>45301</v>
@@ -3196,7 +3214,7 @@
         <v>64</v>
       </c>
       <c r="AR15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AU15" t="s">
         <v>56</v>
@@ -3300,10 +3318,10 @@
         <v>57427970</v>
       </c>
       <c r="AJ16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM16" s="1">
         <v>45306</v>
@@ -3321,7 +3339,7 @@
         <v>64</v>
       </c>
       <c r="AR16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AU16" t="s">
         <v>56</v>
@@ -4964,7 +4982,7 @@
         <v>45324</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29">
         <v>3.41</v>
@@ -5042,7 +5060,7 @@
         <v>57341703</v>
       </c>
       <c r="AJ29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s">
         <v>56</v>
@@ -5063,7 +5081,7 @@
         <v>64</v>
       </c>
       <c r="AR29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU29" t="s">
         <v>56</v>
@@ -5098,7 +5116,7 @@
         <v>45324</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30">
         <v>34.35</v>
@@ -5176,7 +5194,7 @@
         <v>57341703</v>
       </c>
       <c r="AJ30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s">
         <v>56</v>
@@ -5197,7 +5215,7 @@
         <v>64</v>
       </c>
       <c r="AR30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU30" t="s">
         <v>56</v>
@@ -5232,7 +5250,7 @@
         <v>45324</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <v>26.97</v>
@@ -5310,7 +5328,7 @@
         <v>57341703</v>
       </c>
       <c r="AJ31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s">
         <v>56</v>
@@ -5331,7 +5349,7 @@
         <v>64</v>
       </c>
       <c r="AR31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU31" t="s">
         <v>56</v>
@@ -5366,7 +5384,7 @@
         <v>45324</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <v>25.98</v>
@@ -5444,7 +5462,7 @@
         <v>57341703</v>
       </c>
       <c r="AJ32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s">
         <v>56</v>
@@ -5465,7 +5483,7 @@
         <v>64</v>
       </c>
       <c r="AR32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU32" t="s">
         <v>56</v>
@@ -5500,7 +5518,7 @@
         <v>45328</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2">
         <v>1867.3</v>
@@ -5578,10 +5596,10 @@
         <v>57372657</v>
       </c>
       <c r="AJ33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM33" s="1">
         <v>45309</v>
@@ -5599,7 +5617,7 @@
         <v>64</v>
       </c>
       <c r="AR33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU33" t="s">
         <v>56</v>
@@ -5634,7 +5652,7 @@
         <v>45328</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34">
         <v>71.760000000000005</v>
@@ -5712,7 +5730,7 @@
         <v>55376507</v>
       </c>
       <c r="AJ34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL34" s="1">
         <v>45324</v>
@@ -5721,7 +5739,7 @@
         <v>45324</v>
       </c>
       <c r="AN34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO34" t="s">
         <v>63</v>
@@ -5733,7 +5751,7 @@
         <v>64</v>
       </c>
       <c r="AR34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AU34" t="s">
         <v>56</v>
@@ -5753,10 +5771,10 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>24001001</v>
@@ -5768,7 +5786,7 @@
         <v>45331</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2">
         <v>-1832.43</v>
@@ -5843,7 +5861,7 @@
         <v>55537180</v>
       </c>
       <c r="AJ35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL35">
         <v>298</v>
@@ -5852,7 +5870,7 @@
         <v>45286</v>
       </c>
       <c r="AN35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO35" t="s">
         <v>63</v>
@@ -5864,7 +5882,7 @@
         <v>64</v>
       </c>
       <c r="AR35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AU35" t="s">
         <v>56</v>
@@ -5899,7 +5917,7 @@
         <v>45331</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36">
         <v>-49.8</v>
@@ -5968,16 +5986,16 @@
         <v>57427056</v>
       </c>
       <c r="AJ36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="1">
         <v>45288</v>
       </c>
       <c r="AN36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="s">
         <v>63</v>
@@ -6024,7 +6042,7 @@
         <v>45331</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G37">
         <v>-320.22000000000003</v>
@@ -6093,7 +6111,7 @@
         <v>55537180</v>
       </c>
       <c r="AJ37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL37">
         <v>298</v>
@@ -6102,7 +6120,7 @@
         <v>45286</v>
       </c>
       <c r="AN37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="s">
         <v>63</v>
@@ -6114,7 +6132,7 @@
         <v>64</v>
       </c>
       <c r="AR37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU37" t="s">
         <v>56</v>
@@ -6149,7 +6167,7 @@
         <v>45331</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" s="2">
         <v>1832.43</v>
@@ -6224,7 +6242,7 @@
         <v>55537180</v>
       </c>
       <c r="AJ38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL38">
         <v>289</v>
@@ -6233,7 +6251,7 @@
         <v>45286</v>
       </c>
       <c r="AN38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO38" t="s">
         <v>63</v>
@@ -6245,7 +6263,7 @@
         <v>64</v>
       </c>
       <c r="AR38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU38" t="s">
         <v>56</v>
@@ -6280,7 +6298,7 @@
         <v>45331</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39">
         <v>359.36</v>
@@ -6358,7 +6376,7 @@
         <v>55376507</v>
       </c>
       <c r="AJ39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL39" s="1">
         <v>45329</v>
@@ -6367,7 +6385,7 @@
         <v>45329</v>
       </c>
       <c r="AN39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO39" t="s">
         <v>63</v>
@@ -6379,7 +6397,7 @@
         <v>64</v>
       </c>
       <c r="AR39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU39" t="s">
         <v>56</v>
@@ -6414,7 +6432,7 @@
         <v>45335</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G40">
         <v>67.98</v>
@@ -6492,7 +6510,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL40" t="s">
         <v>56</v>
@@ -6501,7 +6519,7 @@
         <v>45335</v>
       </c>
       <c r="AN40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO40" t="s">
         <v>63</v>
@@ -6548,7 +6566,7 @@
         <v>45335</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G41">
         <v>67.260000000000005</v>
@@ -6626,7 +6644,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL41" t="s">
         <v>56</v>
@@ -6635,7 +6653,7 @@
         <v>45335</v>
       </c>
       <c r="AN41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO41" t="s">
         <v>63</v>
@@ -6682,7 +6700,7 @@
         <v>45335</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G42">
         <v>75.94</v>
@@ -6760,7 +6778,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL42" t="s">
         <v>56</v>
@@ -6769,7 +6787,7 @@
         <v>45335</v>
       </c>
       <c r="AN42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO42" t="s">
         <v>63</v>
@@ -6816,7 +6834,7 @@
         <v>45335</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43">
         <v>58.22</v>
@@ -6894,7 +6912,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL43" t="s">
         <v>56</v>
@@ -6903,7 +6921,7 @@
         <v>45335</v>
       </c>
       <c r="AN43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO43" t="s">
         <v>63</v>
@@ -6950,7 +6968,7 @@
         <v>45335</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G44">
         <v>314.58999999999997</v>
@@ -7028,7 +7046,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL44" t="s">
         <v>56</v>
@@ -7037,7 +7055,7 @@
         <v>45335</v>
       </c>
       <c r="AN44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO44" t="s">
         <v>63</v>
@@ -7084,7 +7102,7 @@
         <v>45335</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G45">
         <v>6.33</v>
@@ -7162,7 +7180,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL45" t="s">
         <v>56</v>
@@ -7171,7 +7189,7 @@
         <v>45335</v>
       </c>
       <c r="AN45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO45" t="s">
         <v>63</v>
@@ -7218,7 +7236,7 @@
         <v>45335</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G46">
         <v>274.45</v>
@@ -7296,7 +7314,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL46" t="s">
         <v>56</v>
@@ -7305,7 +7323,7 @@
         <v>45335</v>
       </c>
       <c r="AN46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO46" t="s">
         <v>63</v>
@@ -7352,7 +7370,7 @@
         <v>45335</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G47">
         <v>42.31</v>
@@ -7430,7 +7448,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL47" t="s">
         <v>56</v>
@@ -7439,7 +7457,7 @@
         <v>45335</v>
       </c>
       <c r="AN47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO47" t="s">
         <v>63</v>
@@ -7486,7 +7504,7 @@
         <v>45335</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G48">
         <v>266.14</v>
@@ -7564,7 +7582,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL48" t="s">
         <v>56</v>
@@ -7573,7 +7591,7 @@
         <v>45335</v>
       </c>
       <c r="AN48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO48" t="s">
         <v>63</v>
@@ -7620,7 +7638,7 @@
         <v>45335</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G49">
         <v>59.3</v>
@@ -7698,7 +7716,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL49" t="s">
         <v>56</v>
@@ -7707,7 +7725,7 @@
         <v>45335</v>
       </c>
       <c r="AN49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO49" t="s">
         <v>63</v>
@@ -7754,7 +7772,7 @@
         <v>45335</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G50">
         <v>7.77</v>
@@ -7832,7 +7850,7 @@
         <v>57361501</v>
       </c>
       <c r="AJ50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL50" t="s">
         <v>56</v>
@@ -7841,7 +7859,7 @@
         <v>45335</v>
       </c>
       <c r="AN50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO50" t="s">
         <v>63</v>
@@ -7888,7 +7906,7 @@
         <v>45335</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51">
         <v>24.08</v>
@@ -7966,7 +7984,7 @@
         <v>57427056</v>
       </c>
       <c r="AJ51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL51" t="s">
         <v>56</v>
@@ -7975,7 +7993,7 @@
         <v>45335</v>
       </c>
       <c r="AN51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO51" t="s">
         <v>63</v>
@@ -8022,7 +8040,7 @@
         <v>45337</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G52">
         <v>167.92</v>
@@ -8100,7 +8118,7 @@
         <v>55056706</v>
       </c>
       <c r="AJ52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL52" t="s">
         <v>56</v>
@@ -8156,7 +8174,7 @@
         <v>45337</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G53">
         <v>436.59</v>
@@ -8234,7 +8252,7 @@
         <v>55056706</v>
       </c>
       <c r="AJ53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL53" t="s">
         <v>56</v>
@@ -8290,7 +8308,7 @@
         <v>45337</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G54">
         <v>948.75</v>
@@ -8368,7 +8386,7 @@
         <v>55056706</v>
       </c>
       <c r="AJ54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL54" t="s">
         <v>56</v>
@@ -8424,7 +8442,7 @@
         <v>45337</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>-0.64</v>
@@ -8493,16 +8511,16 @@
         <v>57427056</v>
       </c>
       <c r="AJ55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM55" s="1">
         <v>45300</v>
       </c>
       <c r="AN55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO55" t="s">
         <v>63</v>
@@ -8621,13 +8639,13 @@
         <v>54</v>
       </c>
       <c r="AL56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM56" s="1">
         <v>45322</v>
       </c>
       <c r="AN56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO56" t="s">
         <v>63</v>
@@ -8674,7 +8692,7 @@
         <v>45337</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G57">
         <v>-28.73</v>
@@ -8743,16 +8761,16 @@
         <v>57361501</v>
       </c>
       <c r="AJ57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM57" s="1">
         <v>45322</v>
       </c>
       <c r="AN57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO57" t="s">
         <v>63</v>
@@ -8799,7 +8817,7 @@
         <v>45337</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58">
         <v>-0.59</v>
@@ -8868,16 +8886,16 @@
         <v>57341703</v>
       </c>
       <c r="AJ58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM58" s="1">
         <v>45309</v>
       </c>
       <c r="AN58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO58" t="s">
         <v>63</v>
@@ -8889,7 +8907,7 @@
         <v>64</v>
       </c>
       <c r="AR58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU58" t="s">
         <v>56</v>
@@ -8924,7 +8942,7 @@
         <v>45337</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <v>-0.61</v>
@@ -8993,16 +9011,16 @@
         <v>57341703</v>
       </c>
       <c r="AJ59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM59" s="1">
         <v>45313</v>
       </c>
       <c r="AN59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO59" t="s">
         <v>63</v>
@@ -9014,7 +9032,7 @@
         <v>64</v>
       </c>
       <c r="AR59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU59" t="s">
         <v>56</v>
@@ -9049,7 +9067,7 @@
         <v>45337</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G60">
         <v>-0.79</v>
@@ -9118,16 +9136,16 @@
         <v>57341703</v>
       </c>
       <c r="AJ60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM60" s="1">
         <v>45314</v>
       </c>
       <c r="AN60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO60" t="s">
         <v>63</v>
@@ -9139,7 +9157,7 @@
         <v>64</v>
       </c>
       <c r="AR60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU60" t="s">
         <v>56</v>
@@ -9174,7 +9192,7 @@
         <v>45338</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G61">
         <v>73.23</v>
@@ -9252,7 +9270,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL61" t="s">
         <v>56</v>
@@ -9261,7 +9279,7 @@
         <v>45338</v>
       </c>
       <c r="AN61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO61" t="s">
         <v>63</v>
@@ -9273,7 +9291,7 @@
         <v>64</v>
       </c>
       <c r="AR61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU61" t="s">
         <v>56</v>
@@ -9308,7 +9326,7 @@
         <v>45338</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G62">
         <v>0.09</v>
@@ -9386,7 +9404,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL62" t="s">
         <v>56</v>
@@ -9395,7 +9413,7 @@
         <v>45338</v>
       </c>
       <c r="AN62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO62" t="s">
         <v>63</v>
@@ -9407,7 +9425,7 @@
         <v>64</v>
       </c>
       <c r="AR62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU62" t="s">
         <v>56</v>
@@ -9442,7 +9460,7 @@
         <v>45338</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G63">
         <v>10.71</v>
@@ -9520,7 +9538,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL63" t="s">
         <v>56</v>
@@ -9529,7 +9547,7 @@
         <v>45338</v>
       </c>
       <c r="AN63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO63" t="s">
         <v>63</v>
@@ -9541,7 +9559,7 @@
         <v>64</v>
       </c>
       <c r="AR63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU63" t="s">
         <v>56</v>
@@ -9576,7 +9594,7 @@
         <v>45338</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G64">
         <v>46.1</v>
@@ -9654,7 +9672,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL64" t="s">
         <v>56</v>
@@ -9663,7 +9681,7 @@
         <v>45338</v>
       </c>
       <c r="AN64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO64" t="s">
         <v>63</v>
@@ -9675,7 +9693,7 @@
         <v>64</v>
       </c>
       <c r="AR64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU64" t="s">
         <v>56</v>
@@ -9710,7 +9728,7 @@
         <v>45338</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65">
         <v>2.63</v>
@@ -9788,7 +9806,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL65" t="s">
         <v>56</v>
@@ -9797,7 +9815,7 @@
         <v>45338</v>
       </c>
       <c r="AN65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO65" t="s">
         <v>63</v>
@@ -9809,7 +9827,7 @@
         <v>64</v>
       </c>
       <c r="AR65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU65" t="s">
         <v>56</v>
@@ -9844,7 +9862,7 @@
         <v>45338</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G66">
         <v>19.920000000000002</v>
@@ -9922,7 +9940,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL66" t="s">
         <v>56</v>
@@ -9931,7 +9949,7 @@
         <v>45338</v>
       </c>
       <c r="AN66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO66" t="s">
         <v>63</v>
@@ -9943,7 +9961,7 @@
         <v>64</v>
       </c>
       <c r="AR66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU66" t="s">
         <v>56</v>
@@ -9978,7 +9996,7 @@
         <v>45338</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G67">
         <v>52.12</v>
@@ -10056,7 +10074,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL67" t="s">
         <v>56</v>
@@ -10065,7 +10083,7 @@
         <v>45338</v>
       </c>
       <c r="AN67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO67" t="s">
         <v>63</v>
@@ -10077,7 +10095,7 @@
         <v>64</v>
       </c>
       <c r="AR67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU67" t="s">
         <v>56</v>
@@ -10112,7 +10130,7 @@
         <v>45338</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G68">
         <v>31.86</v>
@@ -10190,7 +10208,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL68" t="s">
         <v>56</v>
@@ -10199,7 +10217,7 @@
         <v>45338</v>
       </c>
       <c r="AN68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO68" t="s">
         <v>63</v>
@@ -10211,7 +10229,7 @@
         <v>64</v>
       </c>
       <c r="AR68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU68" t="s">
         <v>56</v>
@@ -10246,7 +10264,7 @@
         <v>45338</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G69">
         <v>25.26</v>
@@ -10324,7 +10342,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL69" t="s">
         <v>56</v>
@@ -10333,7 +10351,7 @@
         <v>45338</v>
       </c>
       <c r="AN69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO69" t="s">
         <v>63</v>
@@ -10345,7 +10363,7 @@
         <v>64</v>
       </c>
       <c r="AR69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU69" t="s">
         <v>56</v>
@@ -10380,7 +10398,7 @@
         <v>45338</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G70">
         <v>15.02</v>
@@ -10458,7 +10476,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL70" t="s">
         <v>56</v>
@@ -10467,7 +10485,7 @@
         <v>45338</v>
       </c>
       <c r="AN70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO70" t="s">
         <v>63</v>
@@ -10479,7 +10497,7 @@
         <v>64</v>
       </c>
       <c r="AR70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU70" t="s">
         <v>56</v>
@@ -10514,7 +10532,7 @@
         <v>45338</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G71">
         <v>0.56999999999999995</v>
@@ -10592,7 +10610,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL71" t="s">
         <v>56</v>
@@ -10601,7 +10619,7 @@
         <v>45338</v>
       </c>
       <c r="AN71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO71" t="s">
         <v>63</v>
@@ -10613,7 +10631,7 @@
         <v>64</v>
       </c>
       <c r="AR71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU71" t="s">
         <v>56</v>
@@ -10648,7 +10666,7 @@
         <v>45338</v>
       </c>
       <c r="F72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G72">
         <v>0.11</v>
@@ -10726,7 +10744,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL72" t="s">
         <v>56</v>
@@ -10735,7 +10753,7 @@
         <v>45338</v>
       </c>
       <c r="AN72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO72" t="s">
         <v>63</v>
@@ -10747,7 +10765,7 @@
         <v>64</v>
       </c>
       <c r="AR72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU72" t="s">
         <v>56</v>
@@ -10782,7 +10800,7 @@
         <v>45338</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G73">
         <v>26.43</v>
@@ -10860,7 +10878,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL73" t="s">
         <v>56</v>
@@ -10869,7 +10887,7 @@
         <v>45338</v>
       </c>
       <c r="AN73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO73" t="s">
         <v>63</v>
@@ -10881,7 +10899,7 @@
         <v>64</v>
       </c>
       <c r="AR73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU73" t="s">
         <v>56</v>
@@ -10916,7 +10934,7 @@
         <v>45338</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G74">
         <v>17.47</v>
@@ -10994,7 +11012,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL74" t="s">
         <v>56</v>
@@ -11003,7 +11021,7 @@
         <v>45338</v>
       </c>
       <c r="AN74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO74" t="s">
         <v>63</v>
@@ -11015,7 +11033,7 @@
         <v>64</v>
       </c>
       <c r="AR74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU74" t="s">
         <v>56</v>
@@ -11050,7 +11068,7 @@
         <v>45338</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G75">
         <v>18.09</v>
@@ -11128,7 +11146,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL75" t="s">
         <v>56</v>
@@ -11137,7 +11155,7 @@
         <v>45338</v>
       </c>
       <c r="AN75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO75" t="s">
         <v>63</v>
@@ -11149,7 +11167,7 @@
         <v>64</v>
       </c>
       <c r="AR75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU75" t="s">
         <v>56</v>
@@ -11184,7 +11202,7 @@
         <v>45338</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G76">
         <v>16.68</v>
@@ -11262,7 +11280,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL76" t="s">
         <v>56</v>
@@ -11271,7 +11289,7 @@
         <v>45338</v>
       </c>
       <c r="AN76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO76" t="s">
         <v>63</v>
@@ -11283,7 +11301,7 @@
         <v>64</v>
       </c>
       <c r="AR76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU76" t="s">
         <v>56</v>
@@ -11318,7 +11336,7 @@
         <v>45338</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G77">
         <v>0.35</v>
@@ -11396,7 +11414,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL77" t="s">
         <v>56</v>
@@ -11405,7 +11423,7 @@
         <v>45338</v>
       </c>
       <c r="AN77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO77" t="s">
         <v>63</v>
@@ -11417,7 +11435,7 @@
         <v>64</v>
       </c>
       <c r="AR77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU77" t="s">
         <v>56</v>
@@ -11452,7 +11470,7 @@
         <v>45338</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G78">
         <v>25.55</v>
@@ -11530,7 +11548,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL78" t="s">
         <v>56</v>
@@ -11539,7 +11557,7 @@
         <v>45338</v>
       </c>
       <c r="AN78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO78" t="s">
         <v>63</v>
@@ -11551,7 +11569,7 @@
         <v>64</v>
       </c>
       <c r="AR78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU78" t="s">
         <v>56</v>
@@ -11586,7 +11604,7 @@
         <v>45338</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G79">
         <v>0.64</v>
@@ -11664,7 +11682,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL79" t="s">
         <v>56</v>
@@ -11673,7 +11691,7 @@
         <v>45338</v>
       </c>
       <c r="AN79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO79" t="s">
         <v>63</v>
@@ -11685,7 +11703,7 @@
         <v>64</v>
       </c>
       <c r="AR79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU79" t="s">
         <v>56</v>
@@ -11720,7 +11738,7 @@
         <v>45338</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G80">
         <v>10.54</v>
@@ -11798,7 +11816,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL80" t="s">
         <v>56</v>
@@ -11807,7 +11825,7 @@
         <v>45338</v>
       </c>
       <c r="AN80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO80" t="s">
         <v>63</v>
@@ -11819,7 +11837,7 @@
         <v>64</v>
       </c>
       <c r="AR80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU80" t="s">
         <v>56</v>
@@ -11854,7 +11872,7 @@
         <v>45338</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G81">
         <v>24.93</v>
@@ -11932,7 +11950,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL81" t="s">
         <v>56</v>
@@ -11941,7 +11959,7 @@
         <v>45338</v>
       </c>
       <c r="AN81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO81" t="s">
         <v>63</v>
@@ -11953,7 +11971,7 @@
         <v>64</v>
       </c>
       <c r="AR81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU81" t="s">
         <v>56</v>
@@ -11988,7 +12006,7 @@
         <v>45338</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G82">
         <v>20.28</v>
@@ -12066,7 +12084,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL82" t="s">
         <v>56</v>
@@ -12075,7 +12093,7 @@
         <v>45338</v>
       </c>
       <c r="AN82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO82" t="s">
         <v>63</v>
@@ -12087,7 +12105,7 @@
         <v>64</v>
       </c>
       <c r="AR82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU82" t="s">
         <v>56</v>
@@ -12122,7 +12140,7 @@
         <v>45338</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G83">
         <v>9.52</v>
@@ -12200,7 +12218,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL83" t="s">
         <v>56</v>
@@ -12209,7 +12227,7 @@
         <v>45338</v>
       </c>
       <c r="AN83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO83" t="s">
         <v>63</v>
@@ -12221,7 +12239,7 @@
         <v>64</v>
       </c>
       <c r="AR83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU83" t="s">
         <v>56</v>
@@ -12256,7 +12274,7 @@
         <v>45338</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G84">
         <v>17.670000000000002</v>
@@ -12334,7 +12352,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL84" t="s">
         <v>56</v>
@@ -12343,7 +12361,7 @@
         <v>45338</v>
       </c>
       <c r="AN84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO84" t="s">
         <v>63</v>
@@ -12355,7 +12373,7 @@
         <v>64</v>
       </c>
       <c r="AR84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU84" t="s">
         <v>56</v>
@@ -12390,7 +12408,7 @@
         <v>45338</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G85">
         <v>0.11</v>
@@ -12468,7 +12486,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL85" t="s">
         <v>56</v>
@@ -12477,7 +12495,7 @@
         <v>45338</v>
       </c>
       <c r="AN85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO85" t="s">
         <v>63</v>
@@ -12489,7 +12507,7 @@
         <v>64</v>
       </c>
       <c r="AR85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU85" t="s">
         <v>56</v>
@@ -12524,7 +12542,7 @@
         <v>45338</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G86">
         <v>0.11</v>
@@ -12602,7 +12620,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL86" t="s">
         <v>56</v>
@@ -12611,7 +12629,7 @@
         <v>45338</v>
       </c>
       <c r="AN86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO86" t="s">
         <v>63</v>
@@ -12623,7 +12641,7 @@
         <v>64</v>
       </c>
       <c r="AR86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU86" t="s">
         <v>56</v>
@@ -12658,7 +12676,7 @@
         <v>45338</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G87">
         <v>9.8800000000000008</v>
@@ -12736,7 +12754,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL87" t="s">
         <v>56</v>
@@ -12745,7 +12763,7 @@
         <v>45338</v>
       </c>
       <c r="AN87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO87" t="s">
         <v>63</v>
@@ -12757,7 +12775,7 @@
         <v>64</v>
       </c>
       <c r="AR87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU87" t="s">
         <v>56</v>
@@ -12792,7 +12810,7 @@
         <v>45338</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G88">
         <v>0.52</v>
@@ -12870,7 +12888,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL88" t="s">
         <v>56</v>
@@ -12879,7 +12897,7 @@
         <v>45338</v>
       </c>
       <c r="AN88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO88" t="s">
         <v>63</v>
@@ -12891,7 +12909,7 @@
         <v>64</v>
       </c>
       <c r="AR88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU88" t="s">
         <v>56</v>
@@ -12926,7 +12944,7 @@
         <v>45338</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G89">
         <v>0.61</v>
@@ -13004,7 +13022,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL89" t="s">
         <v>56</v>
@@ -13013,7 +13031,7 @@
         <v>45338</v>
       </c>
       <c r="AN89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO89" t="s">
         <v>63</v>
@@ -13025,7 +13043,7 @@
         <v>64</v>
       </c>
       <c r="AR89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU89" t="s">
         <v>56</v>
@@ -13060,7 +13078,7 @@
         <v>45338</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G90">
         <v>0.52</v>
@@ -13138,7 +13156,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL90" t="s">
         <v>56</v>
@@ -13147,7 +13165,7 @@
         <v>45338</v>
       </c>
       <c r="AN90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO90" t="s">
         <v>63</v>
@@ -13159,7 +13177,7 @@
         <v>64</v>
       </c>
       <c r="AR90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU90" t="s">
         <v>56</v>
@@ -13194,7 +13212,7 @@
         <v>45338</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G91">
         <v>0.79</v>
@@ -13272,7 +13290,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL91" t="s">
         <v>56</v>
@@ -13281,7 +13299,7 @@
         <v>45338</v>
       </c>
       <c r="AN91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO91" t="s">
         <v>63</v>
@@ -13293,7 +13311,7 @@
         <v>64</v>
       </c>
       <c r="AR91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU91" t="s">
         <v>56</v>
@@ -13328,7 +13346,7 @@
         <v>45338</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G92">
         <v>0.17</v>
@@ -13406,7 +13424,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL92" t="s">
         <v>56</v>
@@ -13415,7 +13433,7 @@
         <v>45338</v>
       </c>
       <c r="AN92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO92" t="s">
         <v>63</v>
@@ -13427,7 +13445,7 @@
         <v>64</v>
       </c>
       <c r="AR92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU92" t="s">
         <v>56</v>
@@ -13462,7 +13480,7 @@
         <v>45338</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G93">
         <v>0.34</v>
@@ -13540,7 +13558,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL93" t="s">
         <v>56</v>
@@ -13549,7 +13567,7 @@
         <v>45338</v>
       </c>
       <c r="AN93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO93" t="s">
         <v>63</v>
@@ -13561,7 +13579,7 @@
         <v>64</v>
       </c>
       <c r="AR93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU93" t="s">
         <v>56</v>
@@ -13596,7 +13614,7 @@
         <v>45338</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G94">
         <v>0.51</v>
@@ -13674,7 +13692,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL94" t="s">
         <v>56</v>
@@ -13683,7 +13701,7 @@
         <v>45338</v>
       </c>
       <c r="AN94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO94" t="s">
         <v>63</v>
@@ -13695,7 +13713,7 @@
         <v>64</v>
       </c>
       <c r="AR94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU94" t="s">
         <v>56</v>
@@ -13730,7 +13748,7 @@
         <v>45338</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G95">
         <v>0.59</v>
@@ -13808,7 +13826,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL95" t="s">
         <v>56</v>
@@ -13817,7 +13835,7 @@
         <v>45338</v>
       </c>
       <c r="AN95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO95" t="s">
         <v>63</v>
@@ -13829,7 +13847,7 @@
         <v>64</v>
       </c>
       <c r="AR95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU95" t="s">
         <v>56</v>
@@ -13864,7 +13882,7 @@
         <v>45338</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G96">
         <v>0.61</v>
@@ -13942,7 +13960,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL96" t="s">
         <v>56</v>
@@ -13951,7 +13969,7 @@
         <v>45338</v>
       </c>
       <c r="AN96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO96" t="s">
         <v>63</v>
@@ -13963,7 +13981,7 @@
         <v>64</v>
       </c>
       <c r="AR96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU96" t="s">
         <v>56</v>
@@ -13998,7 +14016,7 @@
         <v>45338</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G97">
         <v>0.44</v>
@@ -14076,7 +14094,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL97" t="s">
         <v>56</v>
@@ -14085,7 +14103,7 @@
         <v>45338</v>
       </c>
       <c r="AN97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO97" t="s">
         <v>63</v>
@@ -14097,7 +14115,7 @@
         <v>64</v>
       </c>
       <c r="AR97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU97" t="s">
         <v>56</v>
@@ -14132,7 +14150,7 @@
         <v>45338</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -14210,7 +14228,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL98" t="s">
         <v>56</v>
@@ -14219,7 +14237,7 @@
         <v>45338</v>
       </c>
       <c r="AN98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO98" t="s">
         <v>63</v>
@@ -14231,7 +14249,7 @@
         <v>64</v>
       </c>
       <c r="AR98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU98" t="s">
         <v>56</v>
@@ -14266,7 +14284,7 @@
         <v>45338</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G99">
         <v>2.35</v>
@@ -14344,7 +14362,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL99" t="s">
         <v>56</v>
@@ -14353,7 +14371,7 @@
         <v>45338</v>
       </c>
       <c r="AN99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO99" t="s">
         <v>63</v>
@@ -14365,7 +14383,7 @@
         <v>64</v>
       </c>
       <c r="AR99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU99" t="s">
         <v>56</v>
@@ -14400,7 +14418,7 @@
         <v>45338</v>
       </c>
       <c r="F100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G100">
         <v>0.44</v>
@@ -14478,7 +14496,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL100" t="s">
         <v>56</v>
@@ -14487,7 +14505,7 @@
         <v>45338</v>
       </c>
       <c r="AN100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO100" t="s">
         <v>63</v>
@@ -14499,7 +14517,7 @@
         <v>64</v>
       </c>
       <c r="AR100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU100" t="s">
         <v>56</v>
@@ -14534,7 +14552,7 @@
         <v>45338</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G101">
         <v>2.1800000000000002</v>
@@ -14612,7 +14630,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL101" t="s">
         <v>56</v>
@@ -14621,7 +14639,7 @@
         <v>45338</v>
       </c>
       <c r="AN101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO101" t="s">
         <v>63</v>
@@ -14633,7 +14651,7 @@
         <v>64</v>
       </c>
       <c r="AR101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU101" t="s">
         <v>56</v>
@@ -14668,7 +14686,7 @@
         <v>45338</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G102">
         <v>0.9</v>
@@ -14746,7 +14764,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL102" t="s">
         <v>56</v>
@@ -14755,7 +14773,7 @@
         <v>45338</v>
       </c>
       <c r="AN102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO102" t="s">
         <v>63</v>
@@ -14767,7 +14785,7 @@
         <v>64</v>
       </c>
       <c r="AR102" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU102" t="s">
         <v>56</v>
@@ -14802,7 +14820,7 @@
         <v>45338</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G103">
         <v>117.29</v>
@@ -14880,7 +14898,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL103" t="s">
         <v>56</v>
@@ -14889,7 +14907,7 @@
         <v>45338</v>
       </c>
       <c r="AN103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO103" t="s">
         <v>63</v>
@@ -14901,7 +14919,7 @@
         <v>64</v>
       </c>
       <c r="AR103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU103" t="s">
         <v>56</v>
@@ -14936,7 +14954,7 @@
         <v>45338</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G104">
         <v>83.51</v>
@@ -15014,7 +15032,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL104" t="s">
         <v>56</v>
@@ -15023,7 +15041,7 @@
         <v>45338</v>
       </c>
       <c r="AN104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO104" t="s">
         <v>63</v>
@@ -15035,7 +15053,7 @@
         <v>64</v>
       </c>
       <c r="AR104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU104" t="s">
         <v>56</v>
@@ -15070,7 +15088,7 @@
         <v>45338</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G105">
         <v>8.36</v>
@@ -15148,7 +15166,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL105" t="s">
         <v>56</v>
@@ -15157,7 +15175,7 @@
         <v>45338</v>
       </c>
       <c r="AN105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO105" t="s">
         <v>63</v>
@@ -15169,7 +15187,7 @@
         <v>64</v>
       </c>
       <c r="AR105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU105" t="s">
         <v>56</v>
@@ -15204,7 +15222,7 @@
         <v>45338</v>
       </c>
       <c r="F106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G106">
         <v>63.05</v>
@@ -15282,7 +15300,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL106" t="s">
         <v>56</v>
@@ -15291,7 +15309,7 @@
         <v>45338</v>
       </c>
       <c r="AN106" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO106" t="s">
         <v>63</v>
@@ -15303,7 +15321,7 @@
         <v>64</v>
       </c>
       <c r="AR106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU106" t="s">
         <v>56</v>
@@ -15338,7 +15356,7 @@
         <v>45338</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G107">
         <v>34.47</v>
@@ -15416,7 +15434,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL107" t="s">
         <v>56</v>
@@ -15425,7 +15443,7 @@
         <v>45338</v>
       </c>
       <c r="AN107" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO107" t="s">
         <v>63</v>
@@ -15437,7 +15455,7 @@
         <v>64</v>
       </c>
       <c r="AR107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU107" t="s">
         <v>56</v>
@@ -15472,7 +15490,7 @@
         <v>45338</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G108">
         <v>3.96</v>
@@ -15550,7 +15568,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL108" t="s">
         <v>56</v>
@@ -15559,7 +15577,7 @@
         <v>45338</v>
       </c>
       <c r="AN108" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO108" t="s">
         <v>63</v>
@@ -15571,7 +15589,7 @@
         <v>64</v>
       </c>
       <c r="AR108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU108" t="s">
         <v>56</v>
@@ -15606,7 +15624,7 @@
         <v>45338</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G109">
         <v>15.93</v>
@@ -15684,7 +15702,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL109" t="s">
         <v>56</v>
@@ -15693,7 +15711,7 @@
         <v>45338</v>
       </c>
       <c r="AN109" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO109" t="s">
         <v>63</v>
@@ -15705,7 +15723,7 @@
         <v>64</v>
       </c>
       <c r="AR109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU109" t="s">
         <v>56</v>
@@ -15740,7 +15758,7 @@
         <v>45338</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G110">
         <v>27.12</v>
@@ -15818,7 +15836,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL110" t="s">
         <v>56</v>
@@ -15827,7 +15845,7 @@
         <v>45338</v>
       </c>
       <c r="AN110" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO110" t="s">
         <v>63</v>
@@ -15839,7 +15857,7 @@
         <v>64</v>
       </c>
       <c r="AR110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU110" t="s">
         <v>56</v>
@@ -15874,7 +15892,7 @@
         <v>45338</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G111">
         <v>52.32</v>
@@ -15952,7 +15970,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL111" t="s">
         <v>56</v>
@@ -15961,7 +15979,7 @@
         <v>45338</v>
       </c>
       <c r="AN111" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO111" t="s">
         <v>63</v>
@@ -15973,7 +15991,7 @@
         <v>64</v>
       </c>
       <c r="AR111" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU111" t="s">
         <v>56</v>
@@ -16008,7 +16026,7 @@
         <v>45338</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G112">
         <v>22.6</v>
@@ -16086,7 +16104,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL112" t="s">
         <v>56</v>
@@ -16095,7 +16113,7 @@
         <v>45338</v>
       </c>
       <c r="AN112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO112" t="s">
         <v>63</v>
@@ -16107,7 +16125,7 @@
         <v>64</v>
       </c>
       <c r="AR112" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU112" t="s">
         <v>56</v>
@@ -16142,7 +16160,7 @@
         <v>45338</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G113">
         <v>137.41</v>
@@ -16220,7 +16238,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL113" t="s">
         <v>56</v>
@@ -16229,7 +16247,7 @@
         <v>45338</v>
       </c>
       <c r="AN113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO113" t="s">
         <v>63</v>
@@ -16241,7 +16259,7 @@
         <v>64</v>
       </c>
       <c r="AR113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU113" t="s">
         <v>56</v>
@@ -16276,7 +16294,7 @@
         <v>45338</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G114">
         <v>116.96</v>
@@ -16354,7 +16372,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL114" t="s">
         <v>56</v>
@@ -16363,7 +16381,7 @@
         <v>45338</v>
       </c>
       <c r="AN114" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO114" t="s">
         <v>63</v>
@@ -16375,7 +16393,7 @@
         <v>64</v>
       </c>
       <c r="AR114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU114" t="s">
         <v>56</v>
@@ -16410,7 +16428,7 @@
         <v>45338</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G115">
         <v>44.07</v>
@@ -16488,7 +16506,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ115" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL115" t="s">
         <v>56</v>
@@ -16497,7 +16515,7 @@
         <v>45338</v>
       </c>
       <c r="AN115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO115" t="s">
         <v>63</v>
@@ -16509,7 +16527,7 @@
         <v>64</v>
       </c>
       <c r="AR115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU115" t="s">
         <v>56</v>
@@ -16544,7 +16562,7 @@
         <v>45338</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G116">
         <v>47.57</v>
@@ -16622,7 +16640,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ116" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL116" t="s">
         <v>56</v>
@@ -16631,7 +16649,7 @@
         <v>45338</v>
       </c>
       <c r="AN116" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO116" t="s">
         <v>63</v>
@@ -16643,7 +16661,7 @@
         <v>64</v>
       </c>
       <c r="AR116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU116" t="s">
         <v>56</v>
@@ -16678,7 +16696,7 @@
         <v>45338</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G117">
         <v>77.97</v>
@@ -16756,7 +16774,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL117" t="s">
         <v>56</v>
@@ -16765,7 +16783,7 @@
         <v>45338</v>
       </c>
       <c r="AN117" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO117" t="s">
         <v>63</v>
@@ -16777,7 +16795,7 @@
         <v>64</v>
       </c>
       <c r="AR117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU117" t="s">
         <v>56</v>
@@ -16812,7 +16830,7 @@
         <v>45338</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G118">
         <v>0.23</v>
@@ -16890,7 +16908,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL118" t="s">
         <v>56</v>
@@ -16899,7 +16917,7 @@
         <v>45338</v>
       </c>
       <c r="AN118" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO118" t="s">
         <v>63</v>
@@ -16911,7 +16929,7 @@
         <v>64</v>
       </c>
       <c r="AR118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU118" t="s">
         <v>56</v>
@@ -16946,7 +16964,7 @@
         <v>45338</v>
       </c>
       <c r="F119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G119">
         <v>75.599999999999994</v>
@@ -17024,7 +17042,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL119" t="s">
         <v>56</v>
@@ -17033,7 +17051,7 @@
         <v>45338</v>
       </c>
       <c r="AN119" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO119" t="s">
         <v>63</v>
@@ -17045,7 +17063,7 @@
         <v>64</v>
       </c>
       <c r="AR119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU119" t="s">
         <v>56</v>
@@ -17080,7 +17098,7 @@
         <v>45338</v>
       </c>
       <c r="F120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G120">
         <v>96.05</v>
@@ -17158,7 +17176,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL120" t="s">
         <v>56</v>
@@ -17167,7 +17185,7 @@
         <v>45338</v>
       </c>
       <c r="AN120" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO120" t="s">
         <v>63</v>
@@ -17179,7 +17197,7 @@
         <v>64</v>
       </c>
       <c r="AR120" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU120" t="s">
         <v>56</v>
@@ -17214,7 +17232,7 @@
         <v>45338</v>
       </c>
       <c r="F121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G121">
         <v>134.36000000000001</v>
@@ -17292,7 +17310,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL121" t="s">
         <v>56</v>
@@ -17301,7 +17319,7 @@
         <v>45338</v>
       </c>
       <c r="AN121" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO121" t="s">
         <v>63</v>
@@ -17313,7 +17331,7 @@
         <v>64</v>
       </c>
       <c r="AR121" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU121" t="s">
         <v>56</v>
@@ -17348,7 +17366,7 @@
         <v>45338</v>
       </c>
       <c r="F122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G122">
         <v>16.95</v>
@@ -17426,7 +17444,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL122" t="s">
         <v>56</v>
@@ -17435,7 +17453,7 @@
         <v>45338</v>
       </c>
       <c r="AN122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO122" t="s">
         <v>63</v>
@@ -17447,7 +17465,7 @@
         <v>64</v>
       </c>
       <c r="AR122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU122" t="s">
         <v>56</v>
@@ -17482,7 +17500,7 @@
         <v>45338</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G123">
         <v>3.39</v>
@@ -17560,7 +17578,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL123" t="s">
         <v>56</v>
@@ -17569,7 +17587,7 @@
         <v>45338</v>
       </c>
       <c r="AN123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO123" t="s">
         <v>63</v>
@@ -17581,7 +17599,7 @@
         <v>64</v>
       </c>
       <c r="AR123" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU123" t="s">
         <v>56</v>
@@ -17616,7 +17634,7 @@
         <v>45338</v>
       </c>
       <c r="F124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G124">
         <v>170.74</v>
@@ -17694,7 +17712,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL124" t="s">
         <v>56</v>
@@ -17703,7 +17721,7 @@
         <v>45338</v>
       </c>
       <c r="AN124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO124" t="s">
         <v>63</v>
@@ -17715,7 +17733,7 @@
         <v>64</v>
       </c>
       <c r="AR124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU124" t="s">
         <v>56</v>
@@ -17750,7 +17768,7 @@
         <v>45338</v>
       </c>
       <c r="F125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G125">
         <v>116.05</v>
@@ -17828,7 +17846,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL125" t="s">
         <v>56</v>
@@ -17837,7 +17855,7 @@
         <v>45338</v>
       </c>
       <c r="AN125" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO125" t="s">
         <v>63</v>
@@ -17849,7 +17867,7 @@
         <v>64</v>
       </c>
       <c r="AR125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU125" t="s">
         <v>56</v>
@@ -17884,7 +17902,7 @@
         <v>45338</v>
       </c>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G126">
         <v>73.89</v>
@@ -17962,7 +17980,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL126" t="s">
         <v>56</v>
@@ -17971,7 +17989,7 @@
         <v>45338</v>
       </c>
       <c r="AN126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO126" t="s">
         <v>63</v>
@@ -17983,7 +18001,7 @@
         <v>64</v>
       </c>
       <c r="AR126" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU126" t="s">
         <v>56</v>
@@ -18018,7 +18036,7 @@
         <v>45338</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G127">
         <v>31.83</v>
@@ -18096,7 +18114,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL127" t="s">
         <v>56</v>
@@ -18105,7 +18123,7 @@
         <v>45338</v>
       </c>
       <c r="AN127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO127" t="s">
         <v>63</v>
@@ -18117,7 +18135,7 @@
         <v>64</v>
       </c>
       <c r="AR127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU127" t="s">
         <v>56</v>
@@ -18152,7 +18170,7 @@
         <v>45338</v>
       </c>
       <c r="F128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G128">
         <v>19.04</v>
@@ -18230,7 +18248,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL128" t="s">
         <v>56</v>
@@ -18239,7 +18257,7 @@
         <v>45338</v>
       </c>
       <c r="AN128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO128" t="s">
         <v>63</v>
@@ -18251,7 +18269,7 @@
         <v>64</v>
       </c>
       <c r="AR128" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU128" t="s">
         <v>56</v>
@@ -18286,7 +18304,7 @@
         <v>45338</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G129">
         <v>110.84</v>
@@ -18364,7 +18382,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL129" t="s">
         <v>56</v>
@@ -18373,7 +18391,7 @@
         <v>45338</v>
       </c>
       <c r="AN129" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO129" t="s">
         <v>63</v>
@@ -18385,7 +18403,7 @@
         <v>64</v>
       </c>
       <c r="AR129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU129" t="s">
         <v>56</v>
@@ -18420,7 +18438,7 @@
         <v>45338</v>
       </c>
       <c r="F130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G130">
         <v>120.5</v>
@@ -18498,7 +18516,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL130" t="s">
         <v>56</v>
@@ -18507,7 +18525,7 @@
         <v>45338</v>
       </c>
       <c r="AN130" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO130" t="s">
         <v>63</v>
@@ -18519,7 +18537,7 @@
         <v>64</v>
       </c>
       <c r="AR130" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU130" t="s">
         <v>56</v>
@@ -18554,7 +18572,7 @@
         <v>45338</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G131">
         <v>146.36000000000001</v>
@@ -18632,7 +18650,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL131" t="s">
         <v>56</v>
@@ -18641,7 +18659,7 @@
         <v>45338</v>
       </c>
       <c r="AN131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO131" t="s">
         <v>63</v>
@@ -18653,7 +18671,7 @@
         <v>64</v>
       </c>
       <c r="AR131" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU131" t="s">
         <v>56</v>
@@ -18688,7 +18706,7 @@
         <v>45338</v>
       </c>
       <c r="F132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G132">
         <v>109.42</v>
@@ -18766,7 +18784,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL132" t="s">
         <v>56</v>
@@ -18775,7 +18793,7 @@
         <v>45338</v>
       </c>
       <c r="AN132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO132" t="s">
         <v>63</v>
@@ -18787,7 +18805,7 @@
         <v>64</v>
       </c>
       <c r="AR132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU132" t="s">
         <v>56</v>
@@ -18822,7 +18840,7 @@
         <v>45338</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G133">
         <v>43.2</v>
@@ -18900,7 +18918,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL133" t="s">
         <v>56</v>
@@ -18909,7 +18927,7 @@
         <v>45338</v>
       </c>
       <c r="AN133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO133" t="s">
         <v>63</v>
@@ -18921,7 +18939,7 @@
         <v>64</v>
       </c>
       <c r="AR133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU133" t="s">
         <v>56</v>
@@ -18956,7 +18974,7 @@
         <v>45338</v>
       </c>
       <c r="F134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G134">
         <v>1.71</v>
@@ -19034,7 +19052,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL134" t="s">
         <v>56</v>
@@ -19043,7 +19061,7 @@
         <v>45338</v>
       </c>
       <c r="AN134" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO134" t="s">
         <v>63</v>
@@ -19055,7 +19073,7 @@
         <v>64</v>
       </c>
       <c r="AR134" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU134" t="s">
         <v>56</v>
@@ -19090,7 +19108,7 @@
         <v>45338</v>
       </c>
       <c r="F135" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G135">
         <v>43.77</v>
@@ -19168,7 +19186,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ135" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL135" t="s">
         <v>56</v>
@@ -19177,7 +19195,7 @@
         <v>45338</v>
       </c>
       <c r="AN135" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO135" t="s">
         <v>63</v>
@@ -19189,7 +19207,7 @@
         <v>64</v>
       </c>
       <c r="AR135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU135" t="s">
         <v>56</v>
@@ -19224,7 +19242,7 @@
         <v>45338</v>
       </c>
       <c r="F136" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G136">
         <v>36.659999999999997</v>
@@ -19302,7 +19320,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ136" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL136" t="s">
         <v>56</v>
@@ -19311,7 +19329,7 @@
         <v>45338</v>
       </c>
       <c r="AN136" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO136" t="s">
         <v>63</v>
@@ -19323,7 +19341,7 @@
         <v>64</v>
       </c>
       <c r="AR136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU136" t="s">
         <v>56</v>
@@ -19358,7 +19376,7 @@
         <v>45338</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G137">
         <v>138.41</v>
@@ -19436,7 +19454,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ137" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL137" t="s">
         <v>56</v>
@@ -19445,7 +19463,7 @@
         <v>45338</v>
       </c>
       <c r="AN137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO137" t="s">
         <v>63</v>
@@ -19457,7 +19475,7 @@
         <v>64</v>
       </c>
       <c r="AR137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU137" t="s">
         <v>56</v>
@@ -19492,7 +19510,7 @@
         <v>45338</v>
       </c>
       <c r="F138" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G138">
         <v>158.87</v>
@@ -19570,7 +19588,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ138" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL138" t="s">
         <v>56</v>
@@ -19579,7 +19597,7 @@
         <v>45338</v>
       </c>
       <c r="AN138" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO138" t="s">
         <v>63</v>
@@ -19591,7 +19609,7 @@
         <v>64</v>
       </c>
       <c r="AR138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU138" t="s">
         <v>56</v>
@@ -19626,7 +19644,7 @@
         <v>45338</v>
       </c>
       <c r="F139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G139">
         <v>11.37</v>
@@ -19704,7 +19722,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL139" t="s">
         <v>56</v>
@@ -19713,7 +19731,7 @@
         <v>45338</v>
       </c>
       <c r="AN139" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO139" t="s">
         <v>63</v>
@@ -19725,7 +19743,7 @@
         <v>64</v>
       </c>
       <c r="AR139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU139" t="s">
         <v>56</v>
@@ -19760,7 +19778,7 @@
         <v>45338</v>
       </c>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G140">
         <v>40.92</v>
@@ -19838,7 +19856,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL140" t="s">
         <v>56</v>
@@ -19847,7 +19865,7 @@
         <v>45338</v>
       </c>
       <c r="AN140" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO140" t="s">
         <v>63</v>
@@ -19859,7 +19877,7 @@
         <v>64</v>
       </c>
       <c r="AR140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU140" t="s">
         <v>56</v>
@@ -19894,7 +19912,7 @@
         <v>45338</v>
       </c>
       <c r="F141" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G141">
         <v>64.23</v>
@@ -19972,7 +19990,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ141" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL141" t="s">
         <v>56</v>
@@ -19981,7 +19999,7 @@
         <v>45338</v>
       </c>
       <c r="AN141" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO141" t="s">
         <v>63</v>
@@ -19993,7 +20011,7 @@
         <v>64</v>
       </c>
       <c r="AR141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU141" t="s">
         <v>56</v>
@@ -20028,7 +20046,7 @@
         <v>45338</v>
       </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G142">
         <v>156.59</v>
@@ -20106,7 +20124,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ142" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL142" t="s">
         <v>56</v>
@@ -20115,7 +20133,7 @@
         <v>45338</v>
       </c>
       <c r="AN142" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO142" t="s">
         <v>63</v>
@@ -20127,7 +20145,7 @@
         <v>64</v>
       </c>
       <c r="AR142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU142" t="s">
         <v>56</v>
@@ -20162,7 +20180,7 @@
         <v>45338</v>
       </c>
       <c r="F143" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G143">
         <v>122.21</v>
@@ -20240,7 +20258,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ143" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL143" t="s">
         <v>56</v>
@@ -20249,7 +20267,7 @@
         <v>45338</v>
       </c>
       <c r="AN143" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO143" t="s">
         <v>63</v>
@@ -20261,7 +20279,7 @@
         <v>64</v>
       </c>
       <c r="AR143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU143" t="s">
         <v>56</v>
@@ -20296,7 +20314,7 @@
         <v>45338</v>
       </c>
       <c r="F144" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G144">
         <v>14.49</v>
@@ -20374,7 +20392,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ144" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL144" t="s">
         <v>56</v>
@@ -20383,7 +20401,7 @@
         <v>45338</v>
       </c>
       <c r="AN144" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO144" t="s">
         <v>63</v>
@@ -20395,7 +20413,7 @@
         <v>64</v>
       </c>
       <c r="AR144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU144" t="s">
         <v>56</v>
@@ -20430,7 +20448,7 @@
         <v>45338</v>
       </c>
       <c r="F145" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G145">
         <v>18.760000000000002</v>
@@ -20508,7 +20526,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ145" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL145" t="s">
         <v>56</v>
@@ -20517,7 +20535,7 @@
         <v>45338</v>
       </c>
       <c r="AN145" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO145" t="s">
         <v>63</v>
@@ -20529,7 +20547,7 @@
         <v>64</v>
       </c>
       <c r="AR145" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU145" t="s">
         <v>56</v>
@@ -20564,7 +20582,7 @@
         <v>45338</v>
       </c>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G146">
         <v>0.28000000000000003</v>
@@ -20642,7 +20660,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ146" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL146" t="s">
         <v>56</v>
@@ -20651,7 +20669,7 @@
         <v>45338</v>
       </c>
       <c r="AN146" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO146" t="s">
         <v>63</v>
@@ -20663,7 +20681,7 @@
         <v>64</v>
       </c>
       <c r="AR146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU146" t="s">
         <v>56</v>
@@ -20698,7 +20716,7 @@
         <v>45338</v>
       </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G147">
         <v>2.71</v>
@@ -20776,7 +20794,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ147" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL147" t="s">
         <v>56</v>
@@ -20785,7 +20803,7 @@
         <v>45338</v>
       </c>
       <c r="AN147" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO147" t="s">
         <v>63</v>
@@ -20797,7 +20815,7 @@
         <v>64</v>
       </c>
       <c r="AR147" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU147" t="s">
         <v>56</v>
@@ -20832,7 +20850,7 @@
         <v>45338</v>
       </c>
       <c r="F148" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G148">
         <v>66.069999999999993</v>
@@ -20910,7 +20928,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ148" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL148" t="s">
         <v>56</v>
@@ -20919,7 +20937,7 @@
         <v>45338</v>
       </c>
       <c r="AN148" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO148" t="s">
         <v>63</v>
@@ -20931,7 +20949,7 @@
         <v>64</v>
       </c>
       <c r="AR148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU148" t="s">
         <v>56</v>
@@ -20966,7 +20984,7 @@
         <v>45338</v>
       </c>
       <c r="F149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G149">
         <v>66.069999999999993</v>
@@ -21044,7 +21062,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL149" t="s">
         <v>56</v>
@@ -21053,7 +21071,7 @@
         <v>45338</v>
       </c>
       <c r="AN149" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO149" t="s">
         <v>63</v>
@@ -21065,7 +21083,7 @@
         <v>64</v>
       </c>
       <c r="AR149" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU149" t="s">
         <v>56</v>
@@ -21100,7 +21118,7 @@
         <v>45338</v>
       </c>
       <c r="F150" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G150">
         <v>191.59</v>
@@ -21178,7 +21196,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ150" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL150" t="s">
         <v>56</v>
@@ -21187,7 +21205,7 @@
         <v>45338</v>
       </c>
       <c r="AN150" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO150" t="s">
         <v>63</v>
@@ -21199,7 +21217,7 @@
         <v>64</v>
       </c>
       <c r="AR150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU150" t="s">
         <v>56</v>
@@ -21234,7 +21252,7 @@
         <v>45338</v>
       </c>
       <c r="F151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G151">
         <v>280.77999999999997</v>
@@ -21312,7 +21330,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL151" t="s">
         <v>56</v>
@@ -21321,7 +21339,7 @@
         <v>45338</v>
       </c>
       <c r="AN151" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO151" t="s">
         <v>63</v>
@@ -21333,7 +21351,7 @@
         <v>64</v>
       </c>
       <c r="AR151" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU151" t="s">
         <v>56</v>
@@ -21368,7 +21386,7 @@
         <v>45338</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G152">
         <v>399.7</v>
@@ -21446,7 +21464,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ152" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL152" t="s">
         <v>56</v>
@@ -21455,7 +21473,7 @@
         <v>45338</v>
       </c>
       <c r="AN152" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO152" t="s">
         <v>63</v>
@@ -21467,7 +21485,7 @@
         <v>64</v>
       </c>
       <c r="AR152" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU152" t="s">
         <v>56</v>
@@ -21502,7 +21520,7 @@
         <v>45338</v>
       </c>
       <c r="F153" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G153">
         <v>200.4</v>
@@ -21580,7 +21598,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ153" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL153" t="s">
         <v>56</v>
@@ -21589,7 +21607,7 @@
         <v>45338</v>
       </c>
       <c r="AN153" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO153" t="s">
         <v>63</v>
@@ -21601,7 +21619,7 @@
         <v>64</v>
       </c>
       <c r="AR153" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU153" t="s">
         <v>56</v>
@@ -21636,7 +21654,7 @@
         <v>45338</v>
       </c>
       <c r="F154" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G154">
         <v>630.92999999999995</v>
@@ -21714,7 +21732,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ154" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL154" t="s">
         <v>56</v>
@@ -21723,7 +21741,7 @@
         <v>45338</v>
       </c>
       <c r="AN154" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO154" t="s">
         <v>63</v>
@@ -21735,7 +21753,7 @@
         <v>64</v>
       </c>
       <c r="AR154" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU154" t="s">
         <v>56</v>
@@ -21770,7 +21788,7 @@
         <v>45338</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G155">
         <v>24.22</v>
@@ -21848,7 +21866,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ155" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL155" t="s">
         <v>56</v>
@@ -21857,7 +21875,7 @@
         <v>45338</v>
       </c>
       <c r="AN155" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO155" t="s">
         <v>63</v>
@@ -21869,7 +21887,7 @@
         <v>64</v>
       </c>
       <c r="AR155" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU155" t="s">
         <v>56</v>
@@ -21904,7 +21922,7 @@
         <v>45338</v>
       </c>
       <c r="F156" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G156">
         <v>4.04</v>
@@ -21982,7 +22000,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ156" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL156" t="s">
         <v>56</v>
@@ -21991,7 +22009,7 @@
         <v>45338</v>
       </c>
       <c r="AN156" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO156" t="s">
         <v>63</v>
@@ -22003,7 +22021,7 @@
         <v>64</v>
       </c>
       <c r="AR156" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU156" t="s">
         <v>56</v>
@@ -22038,7 +22056,7 @@
         <v>45338</v>
       </c>
       <c r="F157" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G157">
         <v>3.3</v>
@@ -22116,7 +22134,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ157" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL157" t="s">
         <v>56</v>
@@ -22125,7 +22143,7 @@
         <v>45338</v>
       </c>
       <c r="AN157" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO157" t="s">
         <v>63</v>
@@ -22137,7 +22155,7 @@
         <v>64</v>
       </c>
       <c r="AR157" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU157" t="s">
         <v>56</v>
@@ -22172,7 +22190,7 @@
         <v>45338</v>
       </c>
       <c r="F158" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G158">
         <v>2.2000000000000002</v>
@@ -22250,7 +22268,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ158" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL158" t="s">
         <v>56</v>
@@ -22259,7 +22277,7 @@
         <v>45338</v>
       </c>
       <c r="AN158" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO158" t="s">
         <v>63</v>
@@ -22271,7 +22289,7 @@
         <v>64</v>
       </c>
       <c r="AR158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU158" t="s">
         <v>56</v>
@@ -22306,7 +22324,7 @@
         <v>45338</v>
       </c>
       <c r="F159" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G159">
         <v>20.92</v>
@@ -22384,7 +22402,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ159" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL159" t="s">
         <v>56</v>
@@ -22393,7 +22411,7 @@
         <v>45338</v>
       </c>
       <c r="AN159" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO159" t="s">
         <v>63</v>
@@ -22405,7 +22423,7 @@
         <v>64</v>
       </c>
       <c r="AR159" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU159" t="s">
         <v>56</v>
@@ -22440,7 +22458,7 @@
         <v>45338</v>
       </c>
       <c r="F160" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G160">
         <v>9.74</v>
@@ -22518,7 +22536,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ160" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL160" t="s">
         <v>56</v>
@@ -22527,7 +22545,7 @@
         <v>45338</v>
       </c>
       <c r="AN160" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO160" t="s">
         <v>63</v>
@@ -22539,7 +22557,7 @@
         <v>64</v>
       </c>
       <c r="AR160" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU160" t="s">
         <v>56</v>
@@ -22574,7 +22592,7 @@
         <v>45338</v>
       </c>
       <c r="F161" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G161">
         <v>21.29</v>
@@ -22652,7 +22670,7 @@
         <v>57300910</v>
       </c>
       <c r="AJ161" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL161" t="s">
         <v>56</v>
@@ -22661,7 +22679,7 @@
         <v>45338</v>
       </c>
       <c r="AN161" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO161" t="s">
         <v>63</v>
@@ -22673,7 +22691,7 @@
         <v>64</v>
       </c>
       <c r="AR161" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU161" t="s">
         <v>56</v>
@@ -22692,80 +22710,4198 @@
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <v>24001744</v>
+      </c>
+      <c r="D162">
+        <v>1205</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45342</v>
+      </c>
       <c r="F162" t="s">
-        <v>106</v>
-      </c>
-      <c r="G162" s="2">
-        <v>10696.05</v>
-      </c>
-      <c r="H162" s="2">
-        <v>13538.68</v>
-      </c>
-      <c r="K162" s="2">
-        <v>-2842.63</v>
+        <v>105</v>
+      </c>
+      <c r="G162">
+        <v>64.95</v>
+      </c>
+      <c r="H162">
+        <v>64.95</v>
+      </c>
+      <c r="I162" t="s">
+        <v>55</v>
+      </c>
+      <c r="J162" t="s">
+        <v>55</v>
       </c>
       <c r="L162" s="2">
-        <v>210089449</v>
-      </c>
-      <c r="M162" s="2">
-        <v>-37498325</v>
+        <v>1032750</v>
       </c>
       <c r="N162" s="2">
-        <v>172591124</v>
-      </c>
-      <c r="AG162" s="2">
-        <v>37366.67</v>
+        <v>1032750</v>
+      </c>
+      <c r="O162" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>56</v>
+      </c>
+      <c r="R162" t="s">
+        <v>57</v>
+      </c>
+      <c r="S162">
+        <v>15897</v>
+      </c>
+      <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162" t="s">
+        <v>59</v>
+      </c>
+      <c r="V162" t="s">
+        <v>60</v>
+      </c>
+      <c r="W162" t="s">
+        <v>61</v>
+      </c>
+      <c r="X162">
+        <v>2104301</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA162">
+        <v>1</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG162">
+        <v>765</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI162">
+        <v>57300910</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM162" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP162">
+        <v>1205</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR162" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV162" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX162">
+        <v>23001121</v>
+      </c>
+      <c r="AY162">
+        <v>630600</v>
+      </c>
+      <c r="AZ162">
+        <v>1205.6306</v>
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163">
+        <v>24001745</v>
+      </c>
+      <c r="D163">
+        <v>1205</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45342</v>
+      </c>
       <c r="F163" t="s">
-        <v>107</v>
-      </c>
-      <c r="G163" s="2">
-        <v>10696.05</v>
-      </c>
-      <c r="H163" s="2">
-        <v>10696.05</v>
+        <v>105</v>
+      </c>
+      <c r="G163">
+        <v>66.48</v>
+      </c>
+      <c r="H163">
+        <v>66.48</v>
+      </c>
+      <c r="I163" t="s">
+        <v>55</v>
+      </c>
+      <c r="J163" t="s">
+        <v>55</v>
       </c>
       <c r="L163" s="2">
-        <v>172591124</v>
+        <v>1057050</v>
       </c>
       <c r="N163" s="2">
-        <v>172591124</v>
-      </c>
-      <c r="AG163" s="2">
-        <v>37366.67</v>
+        <v>1057050</v>
+      </c>
+      <c r="O163" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>56</v>
+      </c>
+      <c r="R163" t="s">
+        <v>57</v>
+      </c>
+      <c r="S163">
+        <v>15897</v>
+      </c>
+      <c r="T163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U163" t="s">
+        <v>59</v>
+      </c>
+      <c r="V163" t="s">
+        <v>60</v>
+      </c>
+      <c r="W163" t="s">
+        <v>61</v>
+      </c>
+      <c r="X163">
+        <v>2104302</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA163">
+        <v>1</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG163">
+        <v>783</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI163">
+        <v>57300910</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM163" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP163">
+        <v>1205</v>
+      </c>
+      <c r="AQ163" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR163" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV163" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX163">
+        <v>23001121</v>
+      </c>
+      <c r="AY163">
+        <v>630600</v>
+      </c>
+      <c r="AZ163">
+        <v>1205.6306</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164">
+        <v>24001746</v>
+      </c>
+      <c r="D164">
+        <v>1205</v>
+      </c>
+      <c r="E164" s="1">
+        <v>45342</v>
+      </c>
       <c r="F164" t="s">
-        <v>108</v>
-      </c>
-      <c r="G164" s="2">
-        <v>10696.05</v>
-      </c>
-      <c r="H164" s="2">
-        <v>13538.68</v>
-      </c>
-      <c r="K164" s="2">
-        <v>-2842.63</v>
+        <v>105</v>
+      </c>
+      <c r="G164">
+        <v>35.32</v>
+      </c>
+      <c r="H164">
+        <v>35.32</v>
+      </c>
+      <c r="I164" t="s">
+        <v>55</v>
+      </c>
+      <c r="J164" t="s">
+        <v>55</v>
       </c>
       <c r="L164" s="2">
-        <v>210089449</v>
-      </c>
-      <c r="M164" s="2">
-        <v>-37498325</v>
+        <v>561600</v>
       </c>
       <c r="N164" s="2">
-        <v>172591124</v>
-      </c>
-      <c r="AG164" s="2">
-        <v>37366.67</v>
+        <v>561600</v>
+      </c>
+      <c r="O164" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>56</v>
+      </c>
+      <c r="R164" t="s">
+        <v>57</v>
+      </c>
+      <c r="S164">
+        <v>15897</v>
+      </c>
+      <c r="T164" t="s">
+        <v>58</v>
+      </c>
+      <c r="U164" t="s">
+        <v>59</v>
+      </c>
+      <c r="V164" t="s">
+        <v>60</v>
+      </c>
+      <c r="W164" t="s">
+        <v>61</v>
+      </c>
+      <c r="X164">
+        <v>2104303</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA164">
+        <v>1</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG164">
+        <v>416</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI164">
+        <v>57300910</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM164" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP164">
+        <v>1205</v>
+      </c>
+      <c r="AQ164" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR164" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV164" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX164">
+        <v>23001121</v>
+      </c>
+      <c r="AY164">
+        <v>630600</v>
+      </c>
+      <c r="AZ164">
+        <v>1205.6306</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165">
+        <v>24001747</v>
+      </c>
+      <c r="D165">
+        <v>1205</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45342</v>
+      </c>
       <c r="F165" t="s">
+        <v>105</v>
+      </c>
+      <c r="G165">
+        <v>41.18</v>
+      </c>
+      <c r="H165">
+        <v>41.18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>55</v>
+      </c>
+      <c r="J165" t="s">
+        <v>55</v>
+      </c>
+      <c r="L165" s="2">
+        <v>654750</v>
+      </c>
+      <c r="N165" s="2">
+        <v>654750</v>
+      </c>
+      <c r="O165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>56</v>
+      </c>
+      <c r="R165" t="s">
+        <v>57</v>
+      </c>
+      <c r="S165">
+        <v>15897</v>
+      </c>
+      <c r="T165" t="s">
+        <v>58</v>
+      </c>
+      <c r="U165" t="s">
+        <v>59</v>
+      </c>
+      <c r="V165" t="s">
+        <v>60</v>
+      </c>
+      <c r="W165" t="s">
+        <v>61</v>
+      </c>
+      <c r="X165">
+        <v>2104304</v>
+      </c>
+      <c r="Y165" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA165">
+        <v>1</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG165">
+        <v>485</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI165">
+        <v>57300910</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM165" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP165">
+        <v>1205</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX165">
+        <v>23001121</v>
+      </c>
+      <c r="AY165">
+        <v>630600</v>
+      </c>
+      <c r="AZ165">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166">
+        <v>24001748</v>
+      </c>
+      <c r="D166">
+        <v>1205</v>
+      </c>
+      <c r="E166" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F166" t="s">
+        <v>105</v>
+      </c>
+      <c r="G166">
+        <v>4.67</v>
+      </c>
+      <c r="H166">
+        <v>4.67</v>
+      </c>
+      <c r="I166" t="s">
+        <v>55</v>
+      </c>
+      <c r="J166" t="s">
+        <v>55</v>
+      </c>
+      <c r="L166" s="2">
+        <v>74250</v>
+      </c>
+      <c r="N166" s="2">
+        <v>74250</v>
+      </c>
+      <c r="O166" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>56</v>
+      </c>
+      <c r="R166" t="s">
+        <v>57</v>
+      </c>
+      <c r="S166">
+        <v>15897</v>
+      </c>
+      <c r="T166" t="s">
+        <v>58</v>
+      </c>
+      <c r="U166" t="s">
+        <v>59</v>
+      </c>
+      <c r="V166" t="s">
+        <v>60</v>
+      </c>
+      <c r="W166" t="s">
+        <v>61</v>
+      </c>
+      <c r="X166">
+        <v>2104306</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA166">
+        <v>1</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG166">
+        <v>55</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI166">
+        <v>57300910</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM166" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP166">
+        <v>1205</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX166">
+        <v>23001121</v>
+      </c>
+      <c r="AY166">
+        <v>630600</v>
+      </c>
+      <c r="AZ166">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167">
+        <v>24001750</v>
+      </c>
+      <c r="D167">
+        <v>1205</v>
+      </c>
+      <c r="E167" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F167" t="s">
+        <v>105</v>
+      </c>
+      <c r="G167">
+        <v>2.21</v>
+      </c>
+      <c r="H167">
+        <v>2.21</v>
+      </c>
+      <c r="I167" t="s">
+        <v>55</v>
+      </c>
+      <c r="J167" t="s">
+        <v>55</v>
+      </c>
+      <c r="L167" s="2">
+        <v>35100</v>
+      </c>
+      <c r="N167" s="2">
+        <v>35100</v>
+      </c>
+      <c r="O167" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>56</v>
+      </c>
+      <c r="R167" t="s">
+        <v>57</v>
+      </c>
+      <c r="S167">
+        <v>15897</v>
+      </c>
+      <c r="T167" t="s">
+        <v>58</v>
+      </c>
+      <c r="U167" t="s">
+        <v>59</v>
+      </c>
+      <c r="V167" t="s">
+        <v>60</v>
+      </c>
+      <c r="W167" t="s">
+        <v>61</v>
+      </c>
+      <c r="X167">
+        <v>2104307</v>
+      </c>
+      <c r="Y167" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG167">
+        <v>26</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI167">
+        <v>57300910</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM167" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP167">
+        <v>1205</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX167">
+        <v>23001121</v>
+      </c>
+      <c r="AY167">
+        <v>630600</v>
+      </c>
+      <c r="AZ167">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" t="s">
+        <v>53</v>
+      </c>
+      <c r="C168">
+        <v>24001751</v>
+      </c>
+      <c r="D168">
+        <v>1205</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F168" t="s">
+        <v>105</v>
+      </c>
+      <c r="G168">
+        <v>135.91999999999999</v>
+      </c>
+      <c r="H168">
+        <v>135.91999999999999</v>
+      </c>
+      <c r="I168" t="s">
+        <v>55</v>
+      </c>
+      <c r="J168" t="s">
+        <v>55</v>
+      </c>
+      <c r="L168" s="2">
+        <v>2161350</v>
+      </c>
+      <c r="N168" s="2">
+        <v>2161350</v>
+      </c>
+      <c r="O168" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>56</v>
+      </c>
+      <c r="R168" t="s">
+        <v>57</v>
+      </c>
+      <c r="S168">
+        <v>15897</v>
+      </c>
+      <c r="T168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U168" t="s">
+        <v>59</v>
+      </c>
+      <c r="V168" t="s">
+        <v>60</v>
+      </c>
+      <c r="W168" t="s">
+        <v>61</v>
+      </c>
+      <c r="X168">
+        <v>2104308</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA168">
+        <v>1</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG168" s="2">
+        <v>1601</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI168">
+        <v>57300910</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM168" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP168">
+        <v>1205</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX168">
+        <v>23001121</v>
+      </c>
+      <c r="AY168">
+        <v>630600</v>
+      </c>
+      <c r="AZ168">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169">
+        <v>24001752</v>
+      </c>
+      <c r="D169">
+        <v>1205</v>
+      </c>
+      <c r="E169" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F169" t="s">
+        <v>105</v>
+      </c>
+      <c r="G169">
+        <v>2.04</v>
+      </c>
+      <c r="H169">
+        <v>2.04</v>
+      </c>
+      <c r="I169" t="s">
+        <v>55</v>
+      </c>
+      <c r="J169" t="s">
+        <v>55</v>
+      </c>
+      <c r="L169" s="2">
+        <v>32400</v>
+      </c>
+      <c r="N169" s="2">
+        <v>32400</v>
+      </c>
+      <c r="O169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>56</v>
+      </c>
+      <c r="R169" t="s">
+        <v>57</v>
+      </c>
+      <c r="S169">
+        <v>15897</v>
+      </c>
+      <c r="T169" t="s">
+        <v>58</v>
+      </c>
+      <c r="U169" t="s">
+        <v>59</v>
+      </c>
+      <c r="V169" t="s">
+        <v>60</v>
+      </c>
+      <c r="W169" t="s">
+        <v>61</v>
+      </c>
+      <c r="X169">
+        <v>2104309</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA169">
+        <v>1</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG169">
+        <v>24</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI169">
+        <v>57300910</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM169" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP169">
+        <v>1205</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR169" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX169">
+        <v>23001121</v>
+      </c>
+      <c r="AY169">
+        <v>630600</v>
+      </c>
+      <c r="AZ169">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>52</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170">
+        <v>24001753</v>
+      </c>
+      <c r="D170">
+        <v>1205</v>
+      </c>
+      <c r="E170" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F170" t="s">
+        <v>105</v>
+      </c>
+      <c r="G170">
+        <v>18.68</v>
+      </c>
+      <c r="H170">
+        <v>18.68</v>
+      </c>
+      <c r="I170" t="s">
+        <v>55</v>
+      </c>
+      <c r="J170" t="s">
+        <v>55</v>
+      </c>
+      <c r="L170" s="2">
+        <v>297000</v>
+      </c>
+      <c r="N170" s="2">
+        <v>297000</v>
+      </c>
+      <c r="O170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>56</v>
+      </c>
+      <c r="R170" t="s">
+        <v>57</v>
+      </c>
+      <c r="S170">
+        <v>15897</v>
+      </c>
+      <c r="T170" t="s">
+        <v>58</v>
+      </c>
+      <c r="U170" t="s">
+        <v>59</v>
+      </c>
+      <c r="V170" t="s">
+        <v>60</v>
+      </c>
+      <c r="W170" t="s">
+        <v>61</v>
+      </c>
+      <c r="X170">
+        <v>2104310</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA170">
+        <v>1</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG170">
+        <v>220</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI170">
+        <v>57300910</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM170" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP170">
+        <v>1205</v>
+      </c>
+      <c r="AQ170" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR170" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX170">
+        <v>23001121</v>
+      </c>
+      <c r="AY170">
+        <v>630600</v>
+      </c>
+      <c r="AZ170">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>52</v>
+      </c>
+      <c r="B171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171">
+        <v>24001754</v>
+      </c>
+      <c r="D171">
+        <v>1205</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F171" t="s">
+        <v>105</v>
+      </c>
+      <c r="G171">
+        <v>19.61</v>
+      </c>
+      <c r="H171">
+        <v>19.61</v>
+      </c>
+      <c r="I171" t="s">
+        <v>55</v>
+      </c>
+      <c r="J171" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" s="2">
+        <v>311850</v>
+      </c>
+      <c r="N171" s="2">
+        <v>311850</v>
+      </c>
+      <c r="O171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>56</v>
+      </c>
+      <c r="R171" t="s">
+        <v>57</v>
+      </c>
+      <c r="S171">
+        <v>15897</v>
+      </c>
+      <c r="T171" t="s">
+        <v>58</v>
+      </c>
+      <c r="U171" t="s">
+        <v>59</v>
+      </c>
+      <c r="V171" t="s">
+        <v>60</v>
+      </c>
+      <c r="W171" t="s">
+        <v>61</v>
+      </c>
+      <c r="X171">
+        <v>2104311</v>
+      </c>
+      <c r="Y171" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG171">
+        <v>231</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI171">
+        <v>57300910</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM171" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP171">
+        <v>1205</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR171" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX171">
+        <v>23001121</v>
+      </c>
+      <c r="AY171">
+        <v>630600</v>
+      </c>
+      <c r="AZ171">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172">
+        <v>24001755</v>
+      </c>
+      <c r="D172">
+        <v>1205</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F172" t="s">
+        <v>105</v>
+      </c>
+      <c r="G172">
+        <v>6.54</v>
+      </c>
+      <c r="H172">
+        <v>6.54</v>
+      </c>
+      <c r="I172" t="s">
+        <v>55</v>
+      </c>
+      <c r="J172" t="s">
+        <v>55</v>
+      </c>
+      <c r="L172" s="2">
+        <v>103950</v>
+      </c>
+      <c r="N172" s="2">
+        <v>103950</v>
+      </c>
+      <c r="O172" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>56</v>
+      </c>
+      <c r="R172" t="s">
+        <v>57</v>
+      </c>
+      <c r="S172">
+        <v>15897</v>
+      </c>
+      <c r="T172" t="s">
+        <v>58</v>
+      </c>
+      <c r="U172" t="s">
+        <v>59</v>
+      </c>
+      <c r="V172" t="s">
+        <v>60</v>
+      </c>
+      <c r="W172" t="s">
+        <v>61</v>
+      </c>
+      <c r="X172">
+        <v>2104312</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG172">
+        <v>77</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI172">
+        <v>57300910</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM172" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP172">
+        <v>1205</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR172" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV172" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX172">
+        <v>23001121</v>
+      </c>
+      <c r="AY172">
+        <v>630600</v>
+      </c>
+      <c r="AZ172">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173">
+        <v>24001756</v>
+      </c>
+      <c r="D173">
+        <v>1205</v>
+      </c>
+      <c r="E173" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F173" t="s">
+        <v>105</v>
+      </c>
+      <c r="G173">
+        <v>0.34</v>
+      </c>
+      <c r="H173">
+        <v>0.34</v>
+      </c>
+      <c r="I173" t="s">
+        <v>55</v>
+      </c>
+      <c r="J173" t="s">
+        <v>55</v>
+      </c>
+      <c r="L173" s="2">
+        <v>5400</v>
+      </c>
+      <c r="N173" s="2">
+        <v>5400</v>
+      </c>
+      <c r="O173" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>56</v>
+      </c>
+      <c r="R173" t="s">
+        <v>57</v>
+      </c>
+      <c r="S173">
+        <v>15897</v>
+      </c>
+      <c r="T173" t="s">
+        <v>58</v>
+      </c>
+      <c r="U173" t="s">
+        <v>59</v>
+      </c>
+      <c r="V173" t="s">
+        <v>60</v>
+      </c>
+      <c r="W173" t="s">
+        <v>61</v>
+      </c>
+      <c r="X173">
+        <v>2104313</v>
+      </c>
+      <c r="Y173" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG173">
+        <v>4</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI173">
+        <v>57300910</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM173" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP173">
+        <v>1205</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR173" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV173" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX173">
+        <v>23001121</v>
+      </c>
+      <c r="AY173">
+        <v>630600</v>
+      </c>
+      <c r="AZ173">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174">
+        <v>24001757</v>
+      </c>
+      <c r="D174">
+        <v>1205</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F174" t="s">
+        <v>105</v>
+      </c>
+      <c r="G174">
+        <v>0.51</v>
+      </c>
+      <c r="H174">
+        <v>0.51</v>
+      </c>
+      <c r="I174" t="s">
+        <v>55</v>
+      </c>
+      <c r="J174" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" s="2">
+        <v>8100</v>
+      </c>
+      <c r="N174" s="2">
+        <v>8100</v>
+      </c>
+      <c r="O174" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>56</v>
+      </c>
+      <c r="R174" t="s">
+        <v>57</v>
+      </c>
+      <c r="S174">
+        <v>15897</v>
+      </c>
+      <c r="T174" t="s">
+        <v>58</v>
+      </c>
+      <c r="U174" t="s">
+        <v>59</v>
+      </c>
+      <c r="V174" t="s">
+        <v>60</v>
+      </c>
+      <c r="W174" t="s">
+        <v>61</v>
+      </c>
+      <c r="X174">
+        <v>2104314</v>
+      </c>
+      <c r="Y174" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG174">
+        <v>6</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI174">
+        <v>57300910</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM174" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP174">
+        <v>1205</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR174" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX174">
+        <v>23001121</v>
+      </c>
+      <c r="AY174">
+        <v>630600</v>
+      </c>
+      <c r="AZ174">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175">
+        <v>24001759</v>
+      </c>
+      <c r="D175">
+        <v>1205</v>
+      </c>
+      <c r="E175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F175" t="s">
+        <v>105</v>
+      </c>
+      <c r="G175">
+        <v>61.64</v>
+      </c>
+      <c r="H175">
+        <v>61.64</v>
+      </c>
+      <c r="I175" t="s">
+        <v>55</v>
+      </c>
+      <c r="J175" t="s">
+        <v>55</v>
+      </c>
+      <c r="L175" s="2">
+        <v>980100</v>
+      </c>
+      <c r="N175" s="2">
+        <v>980100</v>
+      </c>
+      <c r="O175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>56</v>
+      </c>
+      <c r="R175" t="s">
+        <v>57</v>
+      </c>
+      <c r="S175">
+        <v>15897</v>
+      </c>
+      <c r="T175" t="s">
+        <v>58</v>
+      </c>
+      <c r="U175" t="s">
+        <v>59</v>
+      </c>
+      <c r="V175" t="s">
+        <v>60</v>
+      </c>
+      <c r="W175" t="s">
+        <v>61</v>
+      </c>
+      <c r="X175">
+        <v>2104315</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA175">
+        <v>1</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG175">
+        <v>726</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI175">
+        <v>57300910</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP175">
+        <v>1205</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX175">
+        <v>23001121</v>
+      </c>
+      <c r="AY175">
+        <v>630600</v>
+      </c>
+      <c r="AZ175">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176">
+        <v>24001760</v>
+      </c>
+      <c r="D176">
+        <v>1205</v>
+      </c>
+      <c r="E176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F176" t="s">
+        <v>105</v>
+      </c>
+      <c r="G176">
+        <v>20.12</v>
+      </c>
+      <c r="H176">
+        <v>20.12</v>
+      </c>
+      <c r="I176" t="s">
+        <v>55</v>
+      </c>
+      <c r="J176" t="s">
+        <v>55</v>
+      </c>
+      <c r="L176" s="2">
+        <v>319950</v>
+      </c>
+      <c r="N176" s="2">
+        <v>319950</v>
+      </c>
+      <c r="O176" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>56</v>
+      </c>
+      <c r="R176" t="s">
+        <v>57</v>
+      </c>
+      <c r="S176">
+        <v>15897</v>
+      </c>
+      <c r="T176" t="s">
+        <v>58</v>
+      </c>
+      <c r="U176" t="s">
+        <v>59</v>
+      </c>
+      <c r="V176" t="s">
+        <v>60</v>
+      </c>
+      <c r="W176" t="s">
+        <v>61</v>
+      </c>
+      <c r="X176">
+        <v>2104316</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA176">
+        <v>1</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG176">
+        <v>237</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI176">
+        <v>57300910</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP176">
+        <v>1205</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR176" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX176">
+        <v>23001121</v>
+      </c>
+      <c r="AY176">
+        <v>630600</v>
+      </c>
+      <c r="AZ176">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177">
+        <v>24001761</v>
+      </c>
+      <c r="D177">
+        <v>1205</v>
+      </c>
+      <c r="E177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F177" t="s">
+        <v>105</v>
+      </c>
+      <c r="G177">
+        <v>6.89</v>
+      </c>
+      <c r="H177">
+        <v>6.89</v>
+      </c>
+      <c r="I177" t="s">
+        <v>55</v>
+      </c>
+      <c r="J177" t="s">
+        <v>55</v>
+      </c>
+      <c r="L177" s="2">
+        <v>106650</v>
+      </c>
+      <c r="N177" s="2">
+        <v>106650</v>
+      </c>
+      <c r="O177" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>56</v>
+      </c>
+      <c r="R177" t="s">
+        <v>57</v>
+      </c>
+      <c r="S177">
+        <v>15487</v>
+      </c>
+      <c r="T177" t="s">
+        <v>58</v>
+      </c>
+      <c r="U177" t="s">
+        <v>59</v>
+      </c>
+      <c r="V177" t="s">
+        <v>60</v>
+      </c>
+      <c r="W177" t="s">
+        <v>61</v>
+      </c>
+      <c r="X177">
+        <v>2104317</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA177">
+        <v>1</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG177">
+        <v>79</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI177">
+        <v>57300910</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP177">
+        <v>1205</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR177" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX177">
+        <v>23001120</v>
+      </c>
+      <c r="AY177">
+        <v>630600</v>
+      </c>
+      <c r="AZ177">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178">
+        <v>24001762</v>
+      </c>
+      <c r="D178">
+        <v>1205</v>
+      </c>
+      <c r="E178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F178" t="s">
+        <v>105</v>
+      </c>
+      <c r="G178">
+        <v>6.71</v>
+      </c>
+      <c r="H178">
+        <v>6.71</v>
+      </c>
+      <c r="I178" t="s">
+        <v>55</v>
+      </c>
+      <c r="J178" t="s">
+        <v>55</v>
+      </c>
+      <c r="L178" s="2">
+        <v>103950</v>
+      </c>
+      <c r="N178" s="2">
+        <v>103950</v>
+      </c>
+      <c r="O178" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>56</v>
+      </c>
+      <c r="R178" t="s">
+        <v>57</v>
+      </c>
+      <c r="S178">
+        <v>15487</v>
+      </c>
+      <c r="T178" t="s">
+        <v>58</v>
+      </c>
+      <c r="U178" t="s">
+        <v>59</v>
+      </c>
+      <c r="V178" t="s">
+        <v>60</v>
+      </c>
+      <c r="W178" t="s">
+        <v>61</v>
+      </c>
+      <c r="X178">
+        <v>2104318</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA178">
+        <v>1</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG178">
+        <v>77</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI178">
+        <v>57300910</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP178">
+        <v>1205</v>
+      </c>
+      <c r="AQ178" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR178" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX178">
+        <v>23001120</v>
+      </c>
+      <c r="AY178">
+        <v>630600</v>
+      </c>
+      <c r="AZ178">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179">
+        <v>24001763</v>
+      </c>
+      <c r="D179">
+        <v>1205</v>
+      </c>
+      <c r="E179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F179" t="s">
+        <v>105</v>
+      </c>
+      <c r="G179">
+        <v>0.17</v>
+      </c>
+      <c r="H179">
+        <v>0.17</v>
+      </c>
+      <c r="I179" t="s">
+        <v>55</v>
+      </c>
+      <c r="J179" t="s">
+        <v>55</v>
+      </c>
+      <c r="L179" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N179" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O179" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>56</v>
+      </c>
+      <c r="R179" t="s">
+        <v>57</v>
+      </c>
+      <c r="S179">
+        <v>15487</v>
+      </c>
+      <c r="T179" t="s">
+        <v>58</v>
+      </c>
+      <c r="U179" t="s">
+        <v>59</v>
+      </c>
+      <c r="V179" t="s">
+        <v>60</v>
+      </c>
+      <c r="W179" t="s">
+        <v>61</v>
+      </c>
+      <c r="X179">
+        <v>2104319</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA179">
+        <v>1</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG179">
+        <v>2</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI179">
+        <v>57300910</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP179">
+        <v>1205</v>
+      </c>
+      <c r="AQ179" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR179" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV179" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX179">
+        <v>23001120</v>
+      </c>
+      <c r="AY179">
+        <v>630600</v>
+      </c>
+      <c r="AZ179">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180">
+        <v>24001764</v>
+      </c>
+      <c r="D180">
+        <v>1205</v>
+      </c>
+      <c r="E180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F180" t="s">
+        <v>105</v>
+      </c>
+      <c r="G180">
+        <v>0.17</v>
+      </c>
+      <c r="H180">
+        <v>0.17</v>
+      </c>
+      <c r="I180" t="s">
+        <v>55</v>
+      </c>
+      <c r="J180" t="s">
+        <v>55</v>
+      </c>
+      <c r="L180" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N180" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O180" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>57</v>
+      </c>
+      <c r="S180">
+        <v>15487</v>
+      </c>
+      <c r="T180" t="s">
+        <v>58</v>
+      </c>
+      <c r="U180" t="s">
+        <v>59</v>
+      </c>
+      <c r="V180" t="s">
+        <v>60</v>
+      </c>
+      <c r="W180" t="s">
+        <v>61</v>
+      </c>
+      <c r="X180">
+        <v>2104321</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG180">
+        <v>2</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI180">
+        <v>57300910</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP180">
+        <v>1205</v>
+      </c>
+      <c r="AQ180" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR180" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX180">
+        <v>23001120</v>
+      </c>
+      <c r="AY180">
+        <v>630600</v>
+      </c>
+      <c r="AZ180">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181">
+        <v>24001765</v>
+      </c>
+      <c r="D181">
+        <v>1205</v>
+      </c>
+      <c r="E181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F181" t="s">
+        <v>105</v>
+      </c>
+      <c r="G181">
+        <v>31.13</v>
+      </c>
+      <c r="H181">
+        <v>31.13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>55</v>
+      </c>
+      <c r="J181" t="s">
+        <v>55</v>
+      </c>
+      <c r="L181" s="2">
+        <v>481950</v>
+      </c>
+      <c r="N181" s="2">
+        <v>481950</v>
+      </c>
+      <c r="O181" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>57</v>
+      </c>
+      <c r="S181">
+        <v>15487</v>
+      </c>
+      <c r="T181" t="s">
+        <v>58</v>
+      </c>
+      <c r="U181" t="s">
+        <v>59</v>
+      </c>
+      <c r="V181" t="s">
+        <v>60</v>
+      </c>
+      <c r="W181" t="s">
+        <v>61</v>
+      </c>
+      <c r="X181">
+        <v>2104322</v>
+      </c>
+      <c r="Y181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA181">
+        <v>1</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG181">
+        <v>357</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI181">
+        <v>57300910</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP181">
+        <v>1205</v>
+      </c>
+      <c r="AQ181" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR181" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX181">
+        <v>23001120</v>
+      </c>
+      <c r="AY181">
+        <v>630600</v>
+      </c>
+      <c r="AZ181">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182">
+        <v>24001766</v>
+      </c>
+      <c r="D182">
+        <v>1205</v>
+      </c>
+      <c r="E182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F182" t="s">
+        <v>105</v>
+      </c>
+      <c r="G182">
+        <v>22.76</v>
+      </c>
+      <c r="H182">
+        <v>22.76</v>
+      </c>
+      <c r="I182" t="s">
+        <v>55</v>
+      </c>
+      <c r="J182" t="s">
+        <v>55</v>
+      </c>
+      <c r="L182" s="2">
+        <v>352350</v>
+      </c>
+      <c r="N182" s="2">
+        <v>352350</v>
+      </c>
+      <c r="O182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>57</v>
+      </c>
+      <c r="S182">
+        <v>15487</v>
+      </c>
+      <c r="T182" t="s">
+        <v>58</v>
+      </c>
+      <c r="U182" t="s">
+        <v>59</v>
+      </c>
+      <c r="V182" t="s">
+        <v>60</v>
+      </c>
+      <c r="W182" t="s">
+        <v>61</v>
+      </c>
+      <c r="X182">
+        <v>2104324</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA182">
+        <v>1</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG182">
+        <v>261</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI182">
+        <v>57300910</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP182">
+        <v>1205</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR182" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX182">
+        <v>23001120</v>
+      </c>
+      <c r="AY182">
+        <v>630600</v>
+      </c>
+      <c r="AZ182">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183">
+        <v>24001767</v>
+      </c>
+      <c r="D183">
+        <v>1205</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F183" t="s">
+        <v>105</v>
+      </c>
+      <c r="G183">
+        <v>2.09</v>
+      </c>
+      <c r="H183">
+        <v>2.09</v>
+      </c>
+      <c r="I183" t="s">
+        <v>55</v>
+      </c>
+      <c r="J183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L183" s="2">
+        <v>32400</v>
+      </c>
+      <c r="N183" s="2">
+        <v>32400</v>
+      </c>
+      <c r="O183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="S183">
+        <v>15487</v>
+      </c>
+      <c r="T183" t="s">
+        <v>58</v>
+      </c>
+      <c r="U183" t="s">
+        <v>59</v>
+      </c>
+      <c r="V183" t="s">
+        <v>60</v>
+      </c>
+      <c r="W183" t="s">
+        <v>61</v>
+      </c>
+      <c r="X183">
+        <v>2104325</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA183">
+        <v>1</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG183">
+        <v>24</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI183">
+        <v>57300910</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP183">
+        <v>1205</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV183" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX183">
+        <v>23001120</v>
+      </c>
+      <c r="AY183">
+        <v>630600</v>
+      </c>
+      <c r="AZ183">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184">
+        <v>24001768</v>
+      </c>
+      <c r="D184">
+        <v>1205</v>
+      </c>
+      <c r="E184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F184" t="s">
+        <v>105</v>
+      </c>
+      <c r="G184">
+        <v>13.66</v>
+      </c>
+      <c r="H184">
+        <v>13.66</v>
+      </c>
+      <c r="I184" t="s">
+        <v>55</v>
+      </c>
+      <c r="J184" t="s">
+        <v>55</v>
+      </c>
+      <c r="L184" s="2">
+        <v>210000</v>
+      </c>
+      <c r="N184" s="2">
+        <v>210000</v>
+      </c>
+      <c r="O184" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>57</v>
+      </c>
+      <c r="S184">
+        <v>15384</v>
+      </c>
+      <c r="T184" t="s">
+        <v>58</v>
+      </c>
+      <c r="U184" t="s">
+        <v>59</v>
+      </c>
+      <c r="V184" t="s">
+        <v>60</v>
+      </c>
+      <c r="W184" t="s">
+        <v>61</v>
+      </c>
+      <c r="X184">
+        <v>2104326</v>
+      </c>
+      <c r="Y184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA184">
+        <v>1</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG184">
+        <v>120</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI184">
+        <v>57300910</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP184">
+        <v>1205</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX184">
+        <v>23001127</v>
+      </c>
+      <c r="AY184">
+        <v>630600</v>
+      </c>
+      <c r="AZ184">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185">
+        <v>24001769</v>
+      </c>
+      <c r="D185">
+        <v>1205</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F185" t="s">
+        <v>105</v>
+      </c>
+      <c r="G185">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H185">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I185" t="s">
+        <v>55</v>
+      </c>
+      <c r="J185" t="s">
+        <v>55</v>
+      </c>
+      <c r="L185" s="2">
+        <v>306250</v>
+      </c>
+      <c r="N185" s="2">
+        <v>306250</v>
+      </c>
+      <c r="O185" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>57</v>
+      </c>
+      <c r="S185">
+        <v>15384</v>
+      </c>
+      <c r="T185" t="s">
+        <v>58</v>
+      </c>
+      <c r="U185" t="s">
+        <v>59</v>
+      </c>
+      <c r="V185" t="s">
+        <v>60</v>
+      </c>
+      <c r="W185" t="s">
+        <v>61</v>
+      </c>
+      <c r="X185">
+        <v>2104328</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA185">
+        <v>1</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG185">
+        <v>175</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI185">
+        <v>57300910</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP185">
+        <v>1205</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV185" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX185">
+        <v>23001127</v>
+      </c>
+      <c r="AY185">
+        <v>630600</v>
+      </c>
+      <c r="AZ185">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186">
+        <v>24001770</v>
+      </c>
+      <c r="D186">
+        <v>1205</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F186" t="s">
+        <v>105</v>
+      </c>
+      <c r="G186">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="H186">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="I186" t="s">
+        <v>55</v>
+      </c>
+      <c r="J186" t="s">
+        <v>55</v>
+      </c>
+      <c r="L186" s="2">
+        <v>500500</v>
+      </c>
+      <c r="N186" s="2">
+        <v>500500</v>
+      </c>
+      <c r="O186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>56</v>
+      </c>
+      <c r="R186" t="s">
+        <v>57</v>
+      </c>
+      <c r="S186">
+        <v>15384</v>
+      </c>
+      <c r="T186" t="s">
+        <v>58</v>
+      </c>
+      <c r="U186" t="s">
+        <v>59</v>
+      </c>
+      <c r="V186" t="s">
+        <v>60</v>
+      </c>
+      <c r="W186" t="s">
+        <v>61</v>
+      </c>
+      <c r="X186">
+        <v>2104329</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG186">
+        <v>286</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI186">
+        <v>57300910</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP186">
+        <v>1205</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX186">
+        <v>23001127</v>
+      </c>
+      <c r="AY186">
+        <v>630600</v>
+      </c>
+      <c r="AZ186">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187">
+        <v>24001771</v>
+      </c>
+      <c r="D187">
+        <v>1205</v>
+      </c>
+      <c r="E187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F187" t="s">
+        <v>105</v>
+      </c>
+      <c r="G187">
+        <v>20.71</v>
+      </c>
+      <c r="H187">
+        <v>20.71</v>
+      </c>
+      <c r="I187" t="s">
+        <v>55</v>
+      </c>
+      <c r="J187" t="s">
+        <v>55</v>
+      </c>
+      <c r="L187" s="2">
+        <v>318500</v>
+      </c>
+      <c r="N187" s="2">
+        <v>318500</v>
+      </c>
+      <c r="O187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>56</v>
+      </c>
+      <c r="R187" t="s">
+        <v>57</v>
+      </c>
+      <c r="S187">
+        <v>15384</v>
+      </c>
+      <c r="T187" t="s">
+        <v>58</v>
+      </c>
+      <c r="U187" t="s">
+        <v>59</v>
+      </c>
+      <c r="V187" t="s">
+        <v>60</v>
+      </c>
+      <c r="W187" t="s">
+        <v>61</v>
+      </c>
+      <c r="X187">
+        <v>2104331</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG187">
+        <v>182</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI187">
+        <v>57300910</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP187">
+        <v>1205</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX187">
+        <v>23001127</v>
+      </c>
+      <c r="AY187">
+        <v>630600</v>
+      </c>
+      <c r="AZ187">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>67</v>
+      </c>
+      <c r="B188" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188">
+        <v>24001318</v>
+      </c>
+      <c r="D188">
+        <v>1205</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F188" t="s">
+        <v>105</v>
+      </c>
+      <c r="G188">
+        <v>-6.56</v>
+      </c>
+      <c r="I188" t="s">
+        <v>55</v>
+      </c>
+      <c r="J188" t="s">
+        <v>55</v>
+      </c>
+      <c r="K188">
+        <v>-6.56</v>
+      </c>
+      <c r="O188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>56</v>
+      </c>
+      <c r="R188" t="s">
+        <v>57</v>
+      </c>
+      <c r="S188">
+        <v>15803</v>
+      </c>
+      <c r="T188" t="s">
+        <v>58</v>
+      </c>
+      <c r="U188" t="s">
+        <v>59</v>
+      </c>
+      <c r="V188" t="s">
+        <v>70</v>
+      </c>
+      <c r="W188" t="s">
+        <v>71</v>
+      </c>
+      <c r="X188">
+        <v>2104153</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA188">
+        <v>2</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI188">
+        <v>57300910</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM188" s="1">
+        <v>45299</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP188">
+        <v>1205</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX188">
+        <v>23001113</v>
+      </c>
+      <c r="AY188">
+        <v>630600</v>
+      </c>
+      <c r="AZ188">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>67</v>
+      </c>
+      <c r="B189" t="s">
+        <v>68</v>
+      </c>
+      <c r="C189">
+        <v>24001320</v>
+      </c>
+      <c r="D189">
+        <v>1205</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F189" t="s">
+        <v>105</v>
+      </c>
+      <c r="G189">
+        <v>-20.88</v>
+      </c>
+      <c r="I189" t="s">
+        <v>55</v>
+      </c>
+      <c r="J189" t="s">
+        <v>55</v>
+      </c>
+      <c r="K189">
+        <v>-20.88</v>
+      </c>
+      <c r="O189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>56</v>
+      </c>
+      <c r="R189" t="s">
+        <v>57</v>
+      </c>
+      <c r="S189">
+        <v>15803</v>
+      </c>
+      <c r="T189" t="s">
+        <v>58</v>
+      </c>
+      <c r="U189" t="s">
+        <v>59</v>
+      </c>
+      <c r="V189" t="s">
+        <v>70</v>
+      </c>
+      <c r="W189" t="s">
+        <v>71</v>
+      </c>
+      <c r="X189">
+        <v>2104155</v>
+      </c>
+      <c r="Y189" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA189">
+        <v>2</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI189">
+        <v>57300910</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM189" s="1">
+        <v>45299</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP189">
+        <v>1205</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR189" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX189">
+        <v>23001116</v>
+      </c>
+      <c r="AY189">
+        <v>630600</v>
+      </c>
+      <c r="AZ189">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190" t="s">
+        <v>68</v>
+      </c>
+      <c r="C190">
+        <v>24001321</v>
+      </c>
+      <c r="D190">
+        <v>1205</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F190" t="s">
+        <v>98</v>
+      </c>
+      <c r="G190">
+        <v>-12.21</v>
+      </c>
+      <c r="I190" t="s">
+        <v>55</v>
+      </c>
+      <c r="J190" t="s">
+        <v>55</v>
+      </c>
+      <c r="K190">
+        <v>-12.21</v>
+      </c>
+      <c r="O190" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>56</v>
+      </c>
+      <c r="R190" t="s">
+        <v>57</v>
+      </c>
+      <c r="S190">
+        <v>15803</v>
+      </c>
+      <c r="T190" t="s">
+        <v>58</v>
+      </c>
+      <c r="U190" t="s">
+        <v>59</v>
+      </c>
+      <c r="V190" t="s">
+        <v>70</v>
+      </c>
+      <c r="W190" t="s">
+        <v>71</v>
+      </c>
+      <c r="X190">
+        <v>2104163</v>
+      </c>
+      <c r="Y190" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA190">
+        <v>2</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI190">
+        <v>55056706</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL190" t="s">
         <v>109</v>
+      </c>
+      <c r="AM190" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP190">
+        <v>1205</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR190" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV190" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX190">
+        <v>23001137</v>
+      </c>
+      <c r="AY190">
+        <v>630600</v>
+      </c>
+      <c r="AZ190">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>67</v>
+      </c>
+      <c r="B191" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191">
+        <v>24001322</v>
+      </c>
+      <c r="D191">
+        <v>1205</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F191" t="s">
+        <v>98</v>
+      </c>
+      <c r="G191">
+        <v>-19.18</v>
+      </c>
+      <c r="I191" t="s">
+        <v>55</v>
+      </c>
+      <c r="J191" t="s">
+        <v>55</v>
+      </c>
+      <c r="K191">
+        <v>-19.18</v>
+      </c>
+      <c r="O191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" t="s">
+        <v>57</v>
+      </c>
+      <c r="S191">
+        <v>15803</v>
+      </c>
+      <c r="T191" t="s">
+        <v>58</v>
+      </c>
+      <c r="U191" t="s">
+        <v>59</v>
+      </c>
+      <c r="V191" t="s">
+        <v>70</v>
+      </c>
+      <c r="W191" t="s">
+        <v>71</v>
+      </c>
+      <c r="X191">
+        <v>2104163</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA191">
+        <v>2</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI191">
+        <v>55056706</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM191" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP191">
+        <v>1205</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR191" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV191" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX191">
+        <v>23001137</v>
+      </c>
+      <c r="AY191">
+        <v>630600</v>
+      </c>
+      <c r="AZ191">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>67</v>
+      </c>
+      <c r="B192" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192">
+        <v>24001352</v>
+      </c>
+      <c r="D192">
+        <v>1205</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F192" t="s">
+        <v>84</v>
+      </c>
+      <c r="G192">
+        <v>57.06</v>
+      </c>
+      <c r="H192">
+        <v>57.06</v>
+      </c>
+      <c r="I192" t="s">
+        <v>55</v>
+      </c>
+      <c r="J192" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="2">
+        <v>901680</v>
+      </c>
+      <c r="N192" s="2">
+        <v>901680</v>
+      </c>
+      <c r="O192" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>56</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+      <c r="S192">
+        <v>15803</v>
+      </c>
+      <c r="T192" t="s">
+        <v>58</v>
+      </c>
+      <c r="U192" t="s">
+        <v>59</v>
+      </c>
+      <c r="V192" t="s">
+        <v>70</v>
+      </c>
+      <c r="W192" t="s">
+        <v>71</v>
+      </c>
+      <c r="X192">
+        <v>2104472</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA192">
+        <v>1</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG192">
+        <v>1</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI192">
+        <v>55376507</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL192" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AM192" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP192">
+        <v>1205</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR192" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV192" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX192">
+        <v>24001111</v>
+      </c>
+      <c r="AY192">
+        <v>630600</v>
+      </c>
+      <c r="AZ192">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="193" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>112</v>
+      </c>
+      <c r="G193" s="2">
+        <v>11331.25</v>
+      </c>
+      <c r="H193" s="2">
+        <v>14232.71</v>
+      </c>
+      <c r="K193" s="2">
+        <v>-2901.46</v>
+      </c>
+      <c r="L193" s="2">
+        <v>221044679</v>
+      </c>
+      <c r="M193" s="2">
+        <v>-37498325</v>
+      </c>
+      <c r="N193" s="2">
+        <v>183546354</v>
+      </c>
+      <c r="AG193" s="2">
+        <v>44588.67</v>
+      </c>
+    </row>
+    <row r="194" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>113</v>
+      </c>
+      <c r="G194" s="2">
+        <v>11331.25</v>
+      </c>
+      <c r="H194" s="2">
+        <v>11331.25</v>
+      </c>
+      <c r="L194" s="2">
+        <v>183546354</v>
+      </c>
+      <c r="N194" s="2">
+        <v>183546354</v>
+      </c>
+      <c r="AG194" s="2">
+        <v>44588.67</v>
+      </c>
+    </row>
+    <row r="195" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>114</v>
+      </c>
+      <c r="G195" s="2">
+        <v>11331.25</v>
+      </c>
+      <c r="H195" s="2">
+        <v>14232.71</v>
+      </c>
+      <c r="K195" s="2">
+        <v>-2901.46</v>
+      </c>
+      <c r="L195" s="2">
+        <v>221044679</v>
+      </c>
+      <c r="M195" s="2">
+        <v>-37498325</v>
+      </c>
+      <c r="N195" s="2">
+        <v>183546354</v>
+      </c>
+      <c r="AG195" s="2">
+        <v>44588.67</v>
+      </c>
+    </row>
+    <row r="196" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630600.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C650AB-3956-47FD-AB11-82A7B4C7EDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7300484-D401-4BE2-B7D2-53EFBD8A6CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T070031.064" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070516.017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="118">
   <si>
     <t>Do Ty</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>PENGGERJAAN POLDING CELULER</t>
+  </si>
+  <si>
+    <t>FOLDING CELULER MAJA 1</t>
+  </si>
+  <si>
+    <t>CV ANUGERAH CIPTA GARMINDO</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1210,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ196"/>
+  <dimension ref="A1:AZ225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26827,81 +26833,3982 @@
         <v>1205.6306</v>
       </c>
     </row>
-    <row r="193" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>24001825</v>
+      </c>
+      <c r="D193">
+        <v>1205</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45348</v>
+      </c>
       <c r="F193" t="s">
+        <v>76</v>
+      </c>
+      <c r="G193">
+        <v>887.64</v>
+      </c>
+      <c r="H193">
+        <v>887.64</v>
+      </c>
+      <c r="I193" t="s">
+        <v>56</v>
+      </c>
+      <c r="J193" t="s">
+        <v>56</v>
+      </c>
+      <c r="L193" s="2">
+        <v>13744500</v>
+      </c>
+      <c r="N193" s="2">
+        <v>13744500</v>
+      </c>
+      <c r="O193" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>56</v>
+      </c>
+      <c r="R193" t="s">
+        <v>57</v>
+      </c>
+      <c r="S193">
+        <v>15484</v>
+      </c>
+      <c r="T193" t="s">
+        <v>58</v>
+      </c>
+      <c r="U193" t="s">
+        <v>59</v>
+      </c>
+      <c r="V193" t="s">
+        <v>60</v>
+      </c>
+      <c r="W193" t="s">
+        <v>61</v>
+      </c>
+      <c r="X193">
+        <v>2105417</v>
+      </c>
+      <c r="Y193" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG193" s="2">
+        <v>2499</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI193">
+        <v>57427970</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM193" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP193">
+        <v>1205</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR193" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX193">
+        <v>23001133</v>
+      </c>
+      <c r="AY193">
+        <v>630600</v>
+      </c>
+      <c r="AZ193">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194">
+        <v>24001826</v>
+      </c>
+      <c r="D194">
+        <v>1205</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F194" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194">
+        <v>668.13</v>
+      </c>
+      <c r="H194">
+        <v>668.13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>56</v>
+      </c>
+      <c r="J194" t="s">
+        <v>56</v>
+      </c>
+      <c r="L194" s="2">
+        <v>10345500</v>
+      </c>
+      <c r="N194" s="2">
+        <v>10345500</v>
+      </c>
+      <c r="O194" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>56</v>
+      </c>
+      <c r="R194" t="s">
+        <v>57</v>
+      </c>
+      <c r="S194">
+        <v>15484</v>
+      </c>
+      <c r="T194" t="s">
+        <v>58</v>
+      </c>
+      <c r="U194" t="s">
+        <v>59</v>
+      </c>
+      <c r="V194" t="s">
+        <v>60</v>
+      </c>
+      <c r="W194" t="s">
+        <v>61</v>
+      </c>
+      <c r="X194">
+        <v>2105417</v>
+      </c>
+      <c r="Y194" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA194">
+        <v>1</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG194" s="2">
+        <v>1881</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI194">
+        <v>57427970</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM194" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP194">
+        <v>1205</v>
+      </c>
+      <c r="AQ194" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR194" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX194">
+        <v>23001133</v>
+      </c>
+      <c r="AY194">
+        <v>630600</v>
+      </c>
+      <c r="AZ194">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195">
+        <v>24001863</v>
+      </c>
+      <c r="D195">
+        <v>1205</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F195" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195">
+        <v>33.58</v>
+      </c>
+      <c r="H195">
+        <v>33.58</v>
+      </c>
+      <c r="I195" t="s">
+        <v>55</v>
+      </c>
+      <c r="J195" t="s">
+        <v>55</v>
+      </c>
+      <c r="L195" s="2">
+        <v>520000</v>
+      </c>
+      <c r="N195" s="2">
+        <v>520000</v>
+      </c>
+      <c r="O195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>56</v>
+      </c>
+      <c r="R195" t="s">
+        <v>57</v>
+      </c>
+      <c r="S195">
+        <v>15484</v>
+      </c>
+      <c r="T195" t="s">
+        <v>58</v>
+      </c>
+      <c r="U195" t="s">
+        <v>59</v>
+      </c>
+      <c r="V195" t="s">
+        <v>60</v>
+      </c>
+      <c r="W195" t="s">
+        <v>61</v>
+      </c>
+      <c r="X195">
+        <v>2105646</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA195">
+        <v>1</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG195">
+        <v>20</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI195">
+        <v>55056706</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM195" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP195">
+        <v>1205</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR195" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV195" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX195">
+        <v>23001137</v>
+      </c>
+      <c r="AY195">
+        <v>630600</v>
+      </c>
+      <c r="AZ195">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>67</v>
+      </c>
+      <c r="B196" t="s">
+        <v>68</v>
+      </c>
+      <c r="C196">
+        <v>24001382</v>
+      </c>
+      <c r="D196">
+        <v>1205</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F196" t="s">
+        <v>84</v>
+      </c>
+      <c r="G196">
+        <v>176.9</v>
+      </c>
+      <c r="H196">
+        <v>176.9</v>
+      </c>
+      <c r="I196" t="s">
+        <v>55</v>
+      </c>
+      <c r="J196" t="s">
+        <v>55</v>
+      </c>
+      <c r="L196" s="2">
+        <v>2795520</v>
+      </c>
+      <c r="N196" s="2">
+        <v>2795520</v>
+      </c>
+      <c r="O196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>56</v>
+      </c>
+      <c r="R196" t="s">
+        <v>57</v>
+      </c>
+      <c r="S196">
+        <v>15803</v>
+      </c>
+      <c r="T196" t="s">
+        <v>58</v>
+      </c>
+      <c r="U196" t="s">
+        <v>59</v>
+      </c>
+      <c r="V196" t="s">
+        <v>70</v>
+      </c>
+      <c r="W196" t="s">
+        <v>71</v>
+      </c>
+      <c r="X196">
+        <v>2105441</v>
+      </c>
+      <c r="Y196" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA196">
+        <v>1</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG196">
+        <v>1</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI196">
+        <v>55376507</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL196" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AM196" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP196">
+        <v>1205</v>
+      </c>
+      <c r="AQ196" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR196" t="s">
         <v>112</v>
       </c>
-      <c r="G193" s="2">
-        <v>11331.25</v>
-      </c>
-      <c r="H193" s="2">
-        <v>14232.71</v>
-      </c>
-      <c r="K193" s="2">
-        <v>-2901.46</v>
-      </c>
-      <c r="L193" s="2">
-        <v>221044679</v>
-      </c>
-      <c r="M193" s="2">
-        <v>-37498325</v>
-      </c>
-      <c r="N193" s="2">
-        <v>183546354</v>
-      </c>
-      <c r="AG193" s="2">
-        <v>44588.67</v>
+      <c r="AU196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV196" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX196">
+        <v>24001113</v>
+      </c>
+      <c r="AY196">
+        <v>630600</v>
+      </c>
+      <c r="AZ196">
+        <v>1205.6306</v>
       </c>
     </row>
-    <row r="194" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F194" t="s">
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197">
+        <v>24001867</v>
+      </c>
+      <c r="D197">
+        <v>1205</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F197" t="s">
         <v>113</v>
       </c>
-      <c r="G194" s="2">
-        <v>11331.25</v>
-      </c>
-      <c r="H194" s="2">
-        <v>11331.25</v>
-      </c>
-      <c r="L194" s="2">
-        <v>183546354</v>
-      </c>
-      <c r="N194" s="2">
-        <v>183546354</v>
-      </c>
-      <c r="AG194" s="2">
-        <v>44588.67</v>
+      <c r="G197">
+        <v>45.59</v>
+      </c>
+      <c r="H197">
+        <v>45.59</v>
+      </c>
+      <c r="I197" t="s">
+        <v>55</v>
+      </c>
+      <c r="J197" t="s">
+        <v>55</v>
+      </c>
+      <c r="L197" s="2">
+        <v>720500</v>
+      </c>
+      <c r="N197" s="2">
+        <v>720500</v>
+      </c>
+      <c r="O197" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>56</v>
+      </c>
+      <c r="R197" t="s">
+        <v>57</v>
+      </c>
+      <c r="S197">
+        <v>15803</v>
+      </c>
+      <c r="T197" t="s">
+        <v>58</v>
+      </c>
+      <c r="U197" t="s">
+        <v>59</v>
+      </c>
+      <c r="V197" t="s">
+        <v>60</v>
+      </c>
+      <c r="W197" t="s">
+        <v>61</v>
+      </c>
+      <c r="X197">
+        <v>2105739</v>
+      </c>
+      <c r="Y197" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA197">
+        <v>1</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG197">
+        <v>131</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI197">
+        <v>57382409</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM197" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP197">
+        <v>1205</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX197">
+        <v>24001014</v>
+      </c>
+      <c r="AY197">
+        <v>630600</v>
+      </c>
+      <c r="AZ197">
+        <v>1205.6306</v>
       </c>
     </row>
-    <row r="195" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F195" t="s">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198">
+        <v>24001868</v>
+      </c>
+      <c r="D198">
+        <v>1205</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F198" t="s">
+        <v>113</v>
+      </c>
+      <c r="G198">
+        <v>88.04</v>
+      </c>
+      <c r="H198">
+        <v>88.04</v>
+      </c>
+      <c r="I198" t="s">
+        <v>55</v>
+      </c>
+      <c r="J198" t="s">
+        <v>55</v>
+      </c>
+      <c r="L198" s="2">
+        <v>1391500</v>
+      </c>
+      <c r="N198" s="2">
+        <v>1391500</v>
+      </c>
+      <c r="O198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>56</v>
+      </c>
+      <c r="R198" t="s">
+        <v>57</v>
+      </c>
+      <c r="S198">
+        <v>15803</v>
+      </c>
+      <c r="T198" t="s">
+        <v>58</v>
+      </c>
+      <c r="U198" t="s">
+        <v>59</v>
+      </c>
+      <c r="V198" t="s">
+        <v>60</v>
+      </c>
+      <c r="W198" t="s">
+        <v>61</v>
+      </c>
+      <c r="X198">
+        <v>2105739</v>
+      </c>
+      <c r="Y198" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA198">
+        <v>1</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG198">
+        <v>253</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI198">
+        <v>57382409</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM198" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP198">
+        <v>1205</v>
+      </c>
+      <c r="AQ198" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV198" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX198">
+        <v>24001014</v>
+      </c>
+      <c r="AY198">
+        <v>630600</v>
+      </c>
+      <c r="AZ198">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199">
+        <v>24001869</v>
+      </c>
+      <c r="D199">
+        <v>1205</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F199" t="s">
+        <v>113</v>
+      </c>
+      <c r="G199">
+        <v>38.28</v>
+      </c>
+      <c r="H199">
+        <v>38.28</v>
+      </c>
+      <c r="I199" t="s">
+        <v>55</v>
+      </c>
+      <c r="J199" t="s">
+        <v>55</v>
+      </c>
+      <c r="L199" s="2">
+        <v>605000</v>
+      </c>
+      <c r="N199" s="2">
+        <v>605000</v>
+      </c>
+      <c r="O199" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>56</v>
+      </c>
+      <c r="R199" t="s">
+        <v>57</v>
+      </c>
+      <c r="S199">
+        <v>15803</v>
+      </c>
+      <c r="T199" t="s">
+        <v>58</v>
+      </c>
+      <c r="U199" t="s">
+        <v>59</v>
+      </c>
+      <c r="V199" t="s">
+        <v>60</v>
+      </c>
+      <c r="W199" t="s">
+        <v>61</v>
+      </c>
+      <c r="X199">
+        <v>2105739</v>
+      </c>
+      <c r="Y199" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA199">
+        <v>1</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG199">
+        <v>110</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI199">
+        <v>57382409</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM199" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP199">
+        <v>1205</v>
+      </c>
+      <c r="AQ199" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV199" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX199">
+        <v>24001014</v>
+      </c>
+      <c r="AY199">
+        <v>630600</v>
+      </c>
+      <c r="AZ199">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200">
+        <v>24001870</v>
+      </c>
+      <c r="D200">
+        <v>1205</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F200" t="s">
+        <v>113</v>
+      </c>
+      <c r="G200">
+        <v>70.3</v>
+      </c>
+      <c r="H200">
+        <v>70.3</v>
+      </c>
+      <c r="I200" t="s">
+        <v>55</v>
+      </c>
+      <c r="J200" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200" s="2">
+        <v>1111000</v>
+      </c>
+      <c r="N200" s="2">
+        <v>1111000</v>
+      </c>
+      <c r="O200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>56</v>
+      </c>
+      <c r="R200" t="s">
+        <v>57</v>
+      </c>
+      <c r="S200">
+        <v>15803</v>
+      </c>
+      <c r="T200" t="s">
+        <v>58</v>
+      </c>
+      <c r="U200" t="s">
+        <v>59</v>
+      </c>
+      <c r="V200" t="s">
+        <v>60</v>
+      </c>
+      <c r="W200" t="s">
+        <v>61</v>
+      </c>
+      <c r="X200">
+        <v>2105739</v>
+      </c>
+      <c r="Y200" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA200">
+        <v>1</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG200">
+        <v>202</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI200">
+        <v>57382409</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM200" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP200">
+        <v>1205</v>
+      </c>
+      <c r="AQ200" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR200" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV200" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX200">
+        <v>24001014</v>
+      </c>
+      <c r="AY200">
+        <v>630600</v>
+      </c>
+      <c r="AZ200">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201">
+        <v>24001871</v>
+      </c>
+      <c r="D201">
+        <v>1205</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F201" t="s">
+        <v>113</v>
+      </c>
+      <c r="G201">
+        <v>12.88</v>
+      </c>
+      <c r="H201">
+        <v>12.88</v>
+      </c>
+      <c r="I201" t="s">
+        <v>55</v>
+      </c>
+      <c r="J201" t="s">
+        <v>55</v>
+      </c>
+      <c r="L201" s="2">
+        <v>203500</v>
+      </c>
+      <c r="N201" s="2">
+        <v>203500</v>
+      </c>
+      <c r="O201" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>56</v>
+      </c>
+      <c r="R201" t="s">
+        <v>57</v>
+      </c>
+      <c r="S201">
+        <v>15803</v>
+      </c>
+      <c r="T201" t="s">
+        <v>58</v>
+      </c>
+      <c r="U201" t="s">
+        <v>59</v>
+      </c>
+      <c r="V201" t="s">
+        <v>60</v>
+      </c>
+      <c r="W201" t="s">
+        <v>61</v>
+      </c>
+      <c r="X201">
+        <v>2105739</v>
+      </c>
+      <c r="Y201" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA201">
+        <v>1</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG201">
+        <v>37</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI201">
+        <v>57382409</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM201" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP201">
+        <v>1205</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX201">
+        <v>24001014</v>
+      </c>
+      <c r="AY201">
+        <v>630600</v>
+      </c>
+      <c r="AZ201">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202">
+        <v>24001872</v>
+      </c>
+      <c r="D202">
+        <v>1205</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F202" t="s">
+        <v>113</v>
+      </c>
+      <c r="G202">
+        <v>58.12</v>
+      </c>
+      <c r="H202">
+        <v>58.12</v>
+      </c>
+      <c r="I202" t="s">
+        <v>55</v>
+      </c>
+      <c r="J202" t="s">
+        <v>55</v>
+      </c>
+      <c r="L202" s="2">
+        <v>918500</v>
+      </c>
+      <c r="N202" s="2">
+        <v>918500</v>
+      </c>
+      <c r="O202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>56</v>
+      </c>
+      <c r="R202" t="s">
+        <v>57</v>
+      </c>
+      <c r="S202">
+        <v>15803</v>
+      </c>
+      <c r="T202" t="s">
+        <v>58</v>
+      </c>
+      <c r="U202" t="s">
+        <v>59</v>
+      </c>
+      <c r="V202" t="s">
+        <v>60</v>
+      </c>
+      <c r="W202" t="s">
+        <v>61</v>
+      </c>
+      <c r="X202">
+        <v>2105739</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA202">
+        <v>1</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG202">
+        <v>167</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI202">
+        <v>57382409</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM202" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP202">
+        <v>1205</v>
+      </c>
+      <c r="AQ202" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX202">
+        <v>24001014</v>
+      </c>
+      <c r="AY202">
+        <v>630600</v>
+      </c>
+      <c r="AZ202">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>52</v>
+      </c>
+      <c r="B203" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203">
+        <v>24001873</v>
+      </c>
+      <c r="D203">
+        <v>1205</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F203" t="s">
+        <v>113</v>
+      </c>
+      <c r="G203">
+        <v>51.85</v>
+      </c>
+      <c r="H203">
+        <v>51.85</v>
+      </c>
+      <c r="I203" t="s">
+        <v>55</v>
+      </c>
+      <c r="J203" t="s">
+        <v>55</v>
+      </c>
+      <c r="L203" s="2">
+        <v>819500</v>
+      </c>
+      <c r="N203" s="2">
+        <v>819500</v>
+      </c>
+      <c r="O203" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>56</v>
+      </c>
+      <c r="R203" t="s">
+        <v>57</v>
+      </c>
+      <c r="S203">
+        <v>15803</v>
+      </c>
+      <c r="T203" t="s">
+        <v>58</v>
+      </c>
+      <c r="U203" t="s">
+        <v>59</v>
+      </c>
+      <c r="V203" t="s">
+        <v>60</v>
+      </c>
+      <c r="W203" t="s">
+        <v>61</v>
+      </c>
+      <c r="X203">
+        <v>2105739</v>
+      </c>
+      <c r="Y203" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA203">
+        <v>1</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG203">
+        <v>149</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI203">
+        <v>57382409</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM203" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP203">
+        <v>1205</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX203">
+        <v>24001014</v>
+      </c>
+      <c r="AY203">
+        <v>630600</v>
+      </c>
+      <c r="AZ203">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204">
+        <v>24001874</v>
+      </c>
+      <c r="D204">
+        <v>1205</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F204" t="s">
+        <v>113</v>
+      </c>
+      <c r="G204">
+        <v>65.77</v>
+      </c>
+      <c r="H204">
+        <v>65.77</v>
+      </c>
+      <c r="I204" t="s">
+        <v>55</v>
+      </c>
+      <c r="J204" t="s">
+        <v>55</v>
+      </c>
+      <c r="L204" s="2">
+        <v>1039500</v>
+      </c>
+      <c r="N204" s="2">
+        <v>1039500</v>
+      </c>
+      <c r="O204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>56</v>
+      </c>
+      <c r="R204" t="s">
+        <v>57</v>
+      </c>
+      <c r="S204">
+        <v>15803</v>
+      </c>
+      <c r="T204" t="s">
+        <v>58</v>
+      </c>
+      <c r="U204" t="s">
+        <v>59</v>
+      </c>
+      <c r="V204" t="s">
+        <v>60</v>
+      </c>
+      <c r="W204" t="s">
+        <v>61</v>
+      </c>
+      <c r="X204">
+        <v>2105739</v>
+      </c>
+      <c r="Y204" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA204">
+        <v>1</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG204">
+        <v>189</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI204">
+        <v>57382409</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM204" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP204">
+        <v>1205</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR204" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX204">
+        <v>24001014</v>
+      </c>
+      <c r="AY204">
+        <v>630600</v>
+      </c>
+      <c r="AZ204">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205">
+        <v>24001875</v>
+      </c>
+      <c r="D205">
+        <v>1205</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F205" t="s">
+        <v>113</v>
+      </c>
+      <c r="G205">
+        <v>89.78</v>
+      </c>
+      <c r="H205">
+        <v>89.78</v>
+      </c>
+      <c r="I205" t="s">
+        <v>55</v>
+      </c>
+      <c r="J205" t="s">
+        <v>55</v>
+      </c>
+      <c r="L205" s="2">
+        <v>1419000</v>
+      </c>
+      <c r="N205" s="2">
+        <v>1419000</v>
+      </c>
+      <c r="O205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>56</v>
+      </c>
+      <c r="R205" t="s">
+        <v>57</v>
+      </c>
+      <c r="S205">
+        <v>15803</v>
+      </c>
+      <c r="T205" t="s">
+        <v>58</v>
+      </c>
+      <c r="U205" t="s">
+        <v>59</v>
+      </c>
+      <c r="V205" t="s">
+        <v>60</v>
+      </c>
+      <c r="W205" t="s">
+        <v>61</v>
+      </c>
+      <c r="X205">
+        <v>2105739</v>
+      </c>
+      <c r="Y205" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG205">
+        <v>258</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI205">
+        <v>57382409</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM205" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP205">
+        <v>1205</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR205" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX205">
+        <v>24001014</v>
+      </c>
+      <c r="AY205">
+        <v>630600</v>
+      </c>
+      <c r="AZ205">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206">
+        <v>24001884</v>
+      </c>
+      <c r="D206">
+        <v>1205</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F206" t="s">
+        <v>113</v>
+      </c>
+      <c r="G206">
+        <v>250.77</v>
+      </c>
+      <c r="H206">
+        <v>250.77</v>
+      </c>
+      <c r="I206" t="s">
+        <v>55</v>
+      </c>
+      <c r="J206" t="s">
+        <v>55</v>
+      </c>
+      <c r="L206" s="2">
+        <v>3883000</v>
+      </c>
+      <c r="N206" s="2">
+        <v>3883000</v>
+      </c>
+      <c r="O206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>56</v>
+      </c>
+      <c r="R206" t="s">
+        <v>57</v>
+      </c>
+      <c r="S206">
+        <v>15484</v>
+      </c>
+      <c r="T206" t="s">
+        <v>58</v>
+      </c>
+      <c r="U206" t="s">
+        <v>59</v>
+      </c>
+      <c r="V206" t="s">
+        <v>60</v>
+      </c>
+      <c r="W206" t="s">
+        <v>61</v>
+      </c>
+      <c r="X206">
+        <v>2105786</v>
+      </c>
+      <c r="Y206" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA206">
+        <v>1</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG206">
+        <v>706</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI206">
+        <v>57382409</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM206" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP206">
+        <v>1205</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX206">
+        <v>23001132</v>
+      </c>
+      <c r="AY206">
+        <v>630600</v>
+      </c>
+      <c r="AZ206">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207">
+        <v>24001885</v>
+      </c>
+      <c r="D207">
+        <v>1205</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F207" t="s">
+        <v>113</v>
+      </c>
+      <c r="G207">
+        <v>141.01</v>
+      </c>
+      <c r="H207">
+        <v>141.01</v>
+      </c>
+      <c r="I207" t="s">
+        <v>55</v>
+      </c>
+      <c r="J207" t="s">
+        <v>55</v>
+      </c>
+      <c r="L207" s="2">
+        <v>2183500</v>
+      </c>
+      <c r="N207" s="2">
+        <v>2183500</v>
+      </c>
+      <c r="O207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>56</v>
+      </c>
+      <c r="R207" t="s">
+        <v>57</v>
+      </c>
+      <c r="S207">
+        <v>15484</v>
+      </c>
+      <c r="T207" t="s">
+        <v>58</v>
+      </c>
+      <c r="U207" t="s">
+        <v>59</v>
+      </c>
+      <c r="V207" t="s">
+        <v>60</v>
+      </c>
+      <c r="W207" t="s">
+        <v>61</v>
+      </c>
+      <c r="X207">
+        <v>2105786</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA207">
+        <v>1</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG207">
+        <v>397</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI207">
+        <v>57382409</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM207" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP207">
+        <v>1205</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR207" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX207">
+        <v>23001132</v>
+      </c>
+      <c r="AY207">
+        <v>630600</v>
+      </c>
+      <c r="AZ207">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208">
+        <v>24001886</v>
+      </c>
+      <c r="D208">
+        <v>1205</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F208" t="s">
+        <v>113</v>
+      </c>
+      <c r="G208">
+        <v>82.76</v>
+      </c>
+      <c r="H208">
+        <v>82.76</v>
+      </c>
+      <c r="I208" t="s">
+        <v>55</v>
+      </c>
+      <c r="J208" t="s">
+        <v>55</v>
+      </c>
+      <c r="L208" s="2">
+        <v>1281500</v>
+      </c>
+      <c r="N208" s="2">
+        <v>1281500</v>
+      </c>
+      <c r="O208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>56</v>
+      </c>
+      <c r="R208" t="s">
+        <v>57</v>
+      </c>
+      <c r="S208">
+        <v>15484</v>
+      </c>
+      <c r="T208" t="s">
+        <v>58</v>
+      </c>
+      <c r="U208" t="s">
+        <v>59</v>
+      </c>
+      <c r="V208" t="s">
+        <v>60</v>
+      </c>
+      <c r="W208" t="s">
+        <v>61</v>
+      </c>
+      <c r="X208">
+        <v>2105786</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA208">
+        <v>1</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG208">
+        <v>233</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI208">
+        <v>57382409</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM208" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP208">
+        <v>1205</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR208" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX208">
+        <v>23001132</v>
+      </c>
+      <c r="AY208">
+        <v>630600</v>
+      </c>
+      <c r="AZ208">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209">
+        <v>24001887</v>
+      </c>
+      <c r="D209">
+        <v>1205</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F209" t="s">
+        <v>113</v>
+      </c>
+      <c r="G209">
+        <v>115.44</v>
+      </c>
+      <c r="H209">
+        <v>115.44</v>
+      </c>
+      <c r="I209" t="s">
+        <v>55</v>
+      </c>
+      <c r="J209" t="s">
+        <v>55</v>
+      </c>
+      <c r="L209" s="2">
+        <v>1787500</v>
+      </c>
+      <c r="N209" s="2">
+        <v>1787500</v>
+      </c>
+      <c r="O209" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>56</v>
+      </c>
+      <c r="R209" t="s">
+        <v>57</v>
+      </c>
+      <c r="S209">
+        <v>15484</v>
+      </c>
+      <c r="T209" t="s">
+        <v>58</v>
+      </c>
+      <c r="U209" t="s">
+        <v>59</v>
+      </c>
+      <c r="V209" t="s">
+        <v>60</v>
+      </c>
+      <c r="W209" t="s">
+        <v>61</v>
+      </c>
+      <c r="X209">
+        <v>2105786</v>
+      </c>
+      <c r="Y209" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA209">
+        <v>1</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG209">
+        <v>325</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI209">
+        <v>57382409</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM209" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP209">
+        <v>1205</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR209" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX209">
+        <v>23001132</v>
+      </c>
+      <c r="AY209">
+        <v>630600</v>
+      </c>
+      <c r="AZ209">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210">
+        <v>24001888</v>
+      </c>
+      <c r="D210">
+        <v>1205</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F210" t="s">
+        <v>113</v>
+      </c>
+      <c r="G210">
+        <v>226.62</v>
+      </c>
+      <c r="H210">
+        <v>226.62</v>
+      </c>
+      <c r="I210" t="s">
+        <v>55</v>
+      </c>
+      <c r="J210" t="s">
+        <v>55</v>
+      </c>
+      <c r="L210" s="2">
+        <v>3509000</v>
+      </c>
+      <c r="N210" s="2">
+        <v>3509000</v>
+      </c>
+      <c r="O210" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>56</v>
+      </c>
+      <c r="R210" t="s">
+        <v>57</v>
+      </c>
+      <c r="S210">
+        <v>15484</v>
+      </c>
+      <c r="T210" t="s">
+        <v>58</v>
+      </c>
+      <c r="U210" t="s">
+        <v>59</v>
+      </c>
+      <c r="V210" t="s">
+        <v>60</v>
+      </c>
+      <c r="W210" t="s">
+        <v>61</v>
+      </c>
+      <c r="X210">
+        <v>2105786</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA210">
+        <v>1</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG210">
+        <v>638</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI210">
+        <v>57382409</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM210" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP210">
+        <v>1205</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX210">
+        <v>23001132</v>
+      </c>
+      <c r="AY210">
+        <v>630600</v>
+      </c>
+      <c r="AZ210">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211">
+        <v>24001889</v>
+      </c>
+      <c r="D211">
+        <v>1205</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F211" t="s">
+        <v>113</v>
+      </c>
+      <c r="G211">
+        <v>213.12</v>
+      </c>
+      <c r="H211">
+        <v>213.12</v>
+      </c>
+      <c r="I211" t="s">
+        <v>55</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="L211" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="N211" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="O211" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>56</v>
+      </c>
+      <c r="R211" t="s">
+        <v>57</v>
+      </c>
+      <c r="S211">
+        <v>15484</v>
+      </c>
+      <c r="T211" t="s">
+        <v>58</v>
+      </c>
+      <c r="U211" t="s">
+        <v>59</v>
+      </c>
+      <c r="V211" t="s">
+        <v>60</v>
+      </c>
+      <c r="W211" t="s">
+        <v>61</v>
+      </c>
+      <c r="X211">
+        <v>2105786</v>
+      </c>
+      <c r="Y211" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA211">
+        <v>1</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG211">
+        <v>600</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI211">
+        <v>57382409</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM211" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP211">
+        <v>1205</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX211">
+        <v>23001132</v>
+      </c>
+      <c r="AY211">
+        <v>630600</v>
+      </c>
+      <c r="AZ211">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212">
+        <v>24001890</v>
+      </c>
+      <c r="D212">
+        <v>1205</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F212" t="s">
+        <v>113</v>
+      </c>
+      <c r="G212">
+        <v>177.24</v>
+      </c>
+      <c r="H212">
+        <v>177.24</v>
+      </c>
+      <c r="I212" t="s">
+        <v>55</v>
+      </c>
+      <c r="J212" t="s">
+        <v>55</v>
+      </c>
+      <c r="L212" s="2">
+        <v>2744500</v>
+      </c>
+      <c r="N212" s="2">
+        <v>2744500</v>
+      </c>
+      <c r="O212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>56</v>
+      </c>
+      <c r="R212" t="s">
+        <v>57</v>
+      </c>
+      <c r="S212">
+        <v>15484</v>
+      </c>
+      <c r="T212" t="s">
+        <v>58</v>
+      </c>
+      <c r="U212" t="s">
+        <v>59</v>
+      </c>
+      <c r="V212" t="s">
+        <v>60</v>
+      </c>
+      <c r="W212" t="s">
+        <v>61</v>
+      </c>
+      <c r="X212">
+        <v>2105786</v>
+      </c>
+      <c r="Y212" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA212">
+        <v>1</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG212">
+        <v>499</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI212">
+        <v>57382409</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM212" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP212">
+        <v>1205</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX212">
+        <v>23001132</v>
+      </c>
+      <c r="AY212">
+        <v>630600</v>
+      </c>
+      <c r="AZ212">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="213" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213">
+        <v>24001891</v>
+      </c>
+      <c r="D213">
+        <v>1205</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F213" t="s">
+        <v>113</v>
+      </c>
+      <c r="G213">
+        <v>137.82</v>
+      </c>
+      <c r="H213">
+        <v>137.82</v>
+      </c>
+      <c r="I213" t="s">
+        <v>55</v>
+      </c>
+      <c r="J213" t="s">
+        <v>55</v>
+      </c>
+      <c r="L213" s="2">
+        <v>2134000</v>
+      </c>
+      <c r="N213" s="2">
+        <v>2134000</v>
+      </c>
+      <c r="O213" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>56</v>
+      </c>
+      <c r="R213" t="s">
+        <v>57</v>
+      </c>
+      <c r="S213">
+        <v>15484</v>
+      </c>
+      <c r="T213" t="s">
+        <v>58</v>
+      </c>
+      <c r="U213" t="s">
+        <v>59</v>
+      </c>
+      <c r="V213" t="s">
+        <v>60</v>
+      </c>
+      <c r="W213" t="s">
+        <v>61</v>
+      </c>
+      <c r="X213">
+        <v>2105786</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA213">
+        <v>1</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG213">
+        <v>388</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI213">
+        <v>57382409</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM213" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP213">
+        <v>1205</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX213">
+        <v>23001132</v>
+      </c>
+      <c r="AY213">
+        <v>630600</v>
+      </c>
+      <c r="AZ213">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="214" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214">
+        <v>24001892</v>
+      </c>
+      <c r="D214">
+        <v>1205</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F214" t="s">
+        <v>113</v>
+      </c>
+      <c r="G214">
+        <v>121.12</v>
+      </c>
+      <c r="H214">
+        <v>121.12</v>
+      </c>
+      <c r="I214" t="s">
+        <v>55</v>
+      </c>
+      <c r="J214" t="s">
+        <v>55</v>
+      </c>
+      <c r="L214" s="2">
+        <v>1875500</v>
+      </c>
+      <c r="N214" s="2">
+        <v>1875500</v>
+      </c>
+      <c r="O214" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>56</v>
+      </c>
+      <c r="R214" t="s">
+        <v>57</v>
+      </c>
+      <c r="S214">
+        <v>15484</v>
+      </c>
+      <c r="T214" t="s">
+        <v>58</v>
+      </c>
+      <c r="U214" t="s">
+        <v>59</v>
+      </c>
+      <c r="V214" t="s">
+        <v>60</v>
+      </c>
+      <c r="W214" t="s">
+        <v>61</v>
+      </c>
+      <c r="X214">
+        <v>2105786</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA214">
+        <v>1</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG214">
+        <v>341</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI214">
+        <v>57382409</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM214" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP214">
+        <v>1205</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX214">
+        <v>23001132</v>
+      </c>
+      <c r="AY214">
+        <v>630600</v>
+      </c>
+      <c r="AZ214">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="215" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215">
+        <v>24001893</v>
+      </c>
+      <c r="D215">
+        <v>1205</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G215">
+        <v>155.22</v>
+      </c>
+      <c r="H215">
+        <v>155.22</v>
+      </c>
+      <c r="I215" t="s">
+        <v>55</v>
+      </c>
+      <c r="J215" t="s">
+        <v>55</v>
+      </c>
+      <c r="L215" s="2">
+        <v>2403500</v>
+      </c>
+      <c r="N215" s="2">
+        <v>2403500</v>
+      </c>
+      <c r="O215" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>56</v>
+      </c>
+      <c r="R215" t="s">
+        <v>57</v>
+      </c>
+      <c r="S215">
+        <v>15484</v>
+      </c>
+      <c r="T215" t="s">
+        <v>58</v>
+      </c>
+      <c r="U215" t="s">
+        <v>59</v>
+      </c>
+      <c r="V215" t="s">
+        <v>60</v>
+      </c>
+      <c r="W215" t="s">
+        <v>61</v>
+      </c>
+      <c r="X215">
+        <v>2105786</v>
+      </c>
+      <c r="Y215" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA215">
+        <v>1</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG215">
+        <v>437</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI215">
+        <v>57382409</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM215" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP215">
+        <v>1205</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX215">
+        <v>23001132</v>
+      </c>
+      <c r="AY215">
+        <v>630600</v>
+      </c>
+      <c r="AZ215">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="216" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216">
+        <v>24001894</v>
+      </c>
+      <c r="D216">
+        <v>1205</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F216" t="s">
+        <v>113</v>
+      </c>
+      <c r="G216">
+        <v>59.67</v>
+      </c>
+      <c r="H216">
+        <v>59.67</v>
+      </c>
+      <c r="I216" t="s">
+        <v>55</v>
+      </c>
+      <c r="J216" t="s">
+        <v>55</v>
+      </c>
+      <c r="L216" s="2">
+        <v>924000</v>
+      </c>
+      <c r="N216" s="2">
+        <v>924000</v>
+      </c>
+      <c r="O216" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>56</v>
+      </c>
+      <c r="R216" t="s">
+        <v>57</v>
+      </c>
+      <c r="S216">
+        <v>15484</v>
+      </c>
+      <c r="T216" t="s">
+        <v>58</v>
+      </c>
+      <c r="U216" t="s">
+        <v>59</v>
+      </c>
+      <c r="V216" t="s">
+        <v>60</v>
+      </c>
+      <c r="W216" t="s">
+        <v>61</v>
+      </c>
+      <c r="X216">
+        <v>2105786</v>
+      </c>
+      <c r="Y216" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA216">
+        <v>1</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG216">
+        <v>168</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI216">
+        <v>57382409</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM216" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP216">
+        <v>1205</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX216">
+        <v>23001132</v>
+      </c>
+      <c r="AY216">
+        <v>630600</v>
+      </c>
+      <c r="AZ216">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="217" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217">
+        <v>24001895</v>
+      </c>
+      <c r="D217">
+        <v>1205</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F217" t="s">
+        <v>113</v>
+      </c>
+      <c r="G217">
+        <v>121.48</v>
+      </c>
+      <c r="H217">
+        <v>121.48</v>
+      </c>
+      <c r="I217" t="s">
+        <v>55</v>
+      </c>
+      <c r="J217" t="s">
+        <v>55</v>
+      </c>
+      <c r="L217" s="2">
+        <v>1881000</v>
+      </c>
+      <c r="N217" s="2">
+        <v>1881000</v>
+      </c>
+      <c r="O217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>56</v>
+      </c>
+      <c r="R217" t="s">
+        <v>57</v>
+      </c>
+      <c r="S217">
+        <v>15484</v>
+      </c>
+      <c r="T217" t="s">
+        <v>58</v>
+      </c>
+      <c r="U217" t="s">
+        <v>59</v>
+      </c>
+      <c r="V217" t="s">
+        <v>60</v>
+      </c>
+      <c r="W217" t="s">
+        <v>61</v>
+      </c>
+      <c r="X217">
+        <v>2105786</v>
+      </c>
+      <c r="Y217" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA217">
+        <v>1</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG217">
+        <v>342</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI217">
+        <v>57382409</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM217" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP217">
+        <v>1205</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX217">
+        <v>23001132</v>
+      </c>
+      <c r="AY217">
+        <v>630600</v>
+      </c>
+      <c r="AZ217">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218">
+        <v>24001896</v>
+      </c>
+      <c r="D218">
+        <v>1205</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F218" t="s">
+        <v>113</v>
+      </c>
+      <c r="G218">
+        <v>77.08</v>
+      </c>
+      <c r="H218">
+        <v>77.08</v>
+      </c>
+      <c r="I218" t="s">
+        <v>55</v>
+      </c>
+      <c r="J218" t="s">
+        <v>55</v>
+      </c>
+      <c r="L218" s="2">
+        <v>1193500</v>
+      </c>
+      <c r="N218" s="2">
+        <v>1193500</v>
+      </c>
+      <c r="O218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>56</v>
+      </c>
+      <c r="R218" t="s">
+        <v>57</v>
+      </c>
+      <c r="S218">
+        <v>15484</v>
+      </c>
+      <c r="T218" t="s">
+        <v>58</v>
+      </c>
+      <c r="U218" t="s">
+        <v>59</v>
+      </c>
+      <c r="V218" t="s">
+        <v>60</v>
+      </c>
+      <c r="W218" t="s">
+        <v>61</v>
+      </c>
+      <c r="X218">
+        <v>2105786</v>
+      </c>
+      <c r="Y218" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA218">
+        <v>1</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG218">
+        <v>217</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI218">
+        <v>57382409</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM218" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP218">
+        <v>1205</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX218">
+        <v>23001132</v>
+      </c>
+      <c r="AY218">
+        <v>630600</v>
+      </c>
+      <c r="AZ218">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219">
+        <v>24001897</v>
+      </c>
+      <c r="D219">
+        <v>1205</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F219" t="s">
+        <v>113</v>
+      </c>
+      <c r="G219">
+        <v>251.48</v>
+      </c>
+      <c r="H219">
+        <v>251.48</v>
+      </c>
+      <c r="I219" t="s">
+        <v>55</v>
+      </c>
+      <c r="J219" t="s">
+        <v>55</v>
+      </c>
+      <c r="L219" s="2">
+        <v>3894000</v>
+      </c>
+      <c r="N219" s="2">
+        <v>3894000</v>
+      </c>
+      <c r="O219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>56</v>
+      </c>
+      <c r="R219" t="s">
+        <v>57</v>
+      </c>
+      <c r="S219">
+        <v>15484</v>
+      </c>
+      <c r="T219" t="s">
+        <v>58</v>
+      </c>
+      <c r="U219" t="s">
+        <v>59</v>
+      </c>
+      <c r="V219" t="s">
+        <v>60</v>
+      </c>
+      <c r="W219" t="s">
+        <v>61</v>
+      </c>
+      <c r="X219">
+        <v>2105786</v>
+      </c>
+      <c r="Y219" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA219">
+        <v>1</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG219">
+        <v>708</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI219">
+        <v>57382409</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM219" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP219">
+        <v>1205</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX219">
+        <v>23001132</v>
+      </c>
+      <c r="AY219">
+        <v>630600</v>
+      </c>
+      <c r="AZ219">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220">
+        <v>24001898</v>
+      </c>
+      <c r="D220">
+        <v>1205</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F220" t="s">
+        <v>113</v>
+      </c>
+      <c r="G220">
+        <v>-121.48</v>
+      </c>
+      <c r="I220" t="s">
+        <v>55</v>
+      </c>
+      <c r="J220" t="s">
+        <v>55</v>
+      </c>
+      <c r="K220">
+        <v>-121.48</v>
+      </c>
+      <c r="M220" s="2">
+        <v>-1881000</v>
+      </c>
+      <c r="N220" s="2">
+        <v>-1881000</v>
+      </c>
+      <c r="O220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>56</v>
+      </c>
+      <c r="R220" t="s">
+        <v>57</v>
+      </c>
+      <c r="S220">
+        <v>15484</v>
+      </c>
+      <c r="T220" t="s">
+        <v>58</v>
+      </c>
+      <c r="U220" t="s">
+        <v>59</v>
+      </c>
+      <c r="V220" t="s">
+        <v>60</v>
+      </c>
+      <c r="W220" t="s">
+        <v>61</v>
+      </c>
+      <c r="X220">
+        <v>2105788</v>
+      </c>
+      <c r="Y220" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA220">
+        <v>1</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG220">
+        <v>-342</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI220">
+        <v>57382409</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM220" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP220">
+        <v>1205</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX220">
+        <v>23001132</v>
+      </c>
+      <c r="AY220">
+        <v>630600</v>
+      </c>
+      <c r="AZ220">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>52</v>
+      </c>
+      <c r="B221" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221">
+        <v>24001899</v>
+      </c>
+      <c r="D221">
+        <v>1205</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F221" t="s">
+        <v>113</v>
+      </c>
+      <c r="G221">
+        <v>121.83</v>
+      </c>
+      <c r="H221">
+        <v>121.83</v>
+      </c>
+      <c r="I221" t="s">
+        <v>55</v>
+      </c>
+      <c r="J221" t="s">
+        <v>55</v>
+      </c>
+      <c r="L221" s="2">
+        <v>1886500</v>
+      </c>
+      <c r="N221" s="2">
+        <v>1886500</v>
+      </c>
+      <c r="O221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>56</v>
+      </c>
+      <c r="R221" t="s">
+        <v>57</v>
+      </c>
+      <c r="S221">
+        <v>15484</v>
+      </c>
+      <c r="T221" t="s">
+        <v>58</v>
+      </c>
+      <c r="U221" t="s">
+        <v>59</v>
+      </c>
+      <c r="V221" t="s">
+        <v>60</v>
+      </c>
+      <c r="W221" t="s">
+        <v>61</v>
+      </c>
+      <c r="X221">
+        <v>2105789</v>
+      </c>
+      <c r="Y221" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA221">
+        <v>1</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG221">
+        <v>343</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI221">
+        <v>57382409</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM221" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP221">
+        <v>1205</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX221">
+        <v>23001132</v>
+      </c>
+      <c r="AY221">
+        <v>630600</v>
+      </c>
+      <c r="AZ221">
+        <v>1205.6306</v>
+      </c>
+    </row>
+    <row r="222" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
         <v>114</v>
       </c>
-      <c r="G195" s="2">
-        <v>11331.25</v>
-      </c>
-      <c r="H195" s="2">
-        <v>14232.71</v>
-      </c>
-      <c r="K195" s="2">
-        <v>-2901.46</v>
-      </c>
-      <c r="L195" s="2">
-        <v>221044679</v>
-      </c>
-      <c r="M195" s="2">
-        <v>-37498325</v>
-      </c>
-      <c r="N195" s="2">
-        <v>183546354</v>
-      </c>
-      <c r="AG195" s="2">
-        <v>44588.67</v>
+      <c r="G222" s="2">
+        <v>15749.29</v>
+      </c>
+      <c r="H222" s="2">
+        <v>18772.23</v>
+      </c>
+      <c r="K222" s="2">
+        <v>-3022.94</v>
+      </c>
+      <c r="L222" s="2">
+        <v>291559199</v>
+      </c>
+      <c r="M222" s="2">
+        <v>-39379325</v>
+      </c>
+      <c r="N222" s="2">
+        <v>252179874</v>
+      </c>
+      <c r="AG222" s="2">
+        <v>56485.67</v>
       </c>
     </row>
-    <row r="196" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F196" t="s">
+    <row r="223" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
         <v>115</v>
+      </c>
+      <c r="G223" s="2">
+        <v>15749.29</v>
+      </c>
+      <c r="H223" s="2">
+        <v>15749.29</v>
+      </c>
+      <c r="L223" s="2">
+        <v>252179874</v>
+      </c>
+      <c r="N223" s="2">
+        <v>252179874</v>
+      </c>
+      <c r="AG223" s="2">
+        <v>56485.67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>116</v>
+      </c>
+      <c r="G224" s="2">
+        <v>14193.52</v>
+      </c>
+      <c r="H224" s="2">
+        <v>17216.46</v>
+      </c>
+      <c r="K224" s="2">
+        <v>-3022.94</v>
+      </c>
+      <c r="L224" s="2">
+        <v>267469199</v>
+      </c>
+      <c r="M224" s="2">
+        <v>-39379325</v>
+      </c>
+      <c r="N224" s="2">
+        <v>228089874</v>
+      </c>
+      <c r="AG224" s="2">
+        <v>52105.67</v>
+      </c>
+    </row>
+    <row r="225" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>117</v>
+      </c>
+      <c r="G225" s="2">
+        <v>1555.77</v>
+      </c>
+      <c r="H225" s="2">
+        <v>1555.77</v>
+      </c>
+      <c r="L225" s="2">
+        <v>24090000</v>
+      </c>
+      <c r="N225" s="2">
+        <v>24090000</v>
+      </c>
+      <c r="AG225" s="2">
+        <v>4380</v>
       </c>
     </row>
   </sheetData>
